--- a/civ6/hero_promotion_data.xlsx
+++ b/civ6/hero_promotion_data.xlsx
@@ -4898,7 +4898,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4929,6 +4929,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
@@ -4949,6 +4952,12 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -5486,905 +5495,905 @@
   <sheetPr/>
   <dimension ref="A1:M177"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D182" sqref="D182"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" topLeftCell="A153" workbookViewId="0">
+      <selection activeCell="A171" sqref="$A171:$XFD171"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="1" width="8.72727272727273" style="11"/>
-    <col min="2" max="2" width="8.09090909090909" style="11" customWidth="1"/>
-    <col min="3" max="3" width="7.36363636363636" style="11" customWidth="1"/>
-    <col min="4" max="4" width="38.9090909090909" style="11" customWidth="1"/>
-    <col min="5" max="5" width="102.636363636364" style="12" customWidth="1"/>
-    <col min="6" max="6" width="18" style="11" customWidth="1"/>
-    <col min="7" max="9" width="6.45454545454545" style="11" customWidth="1"/>
-    <col min="10" max="10" width="8.09090909090909" style="11" customWidth="1"/>
-    <col min="11" max="11" width="91.6363636363636" style="11" customWidth="1"/>
-    <col min="12" max="12" width="49.2727272727273" style="11" customWidth="1"/>
-    <col min="13" max="13" width="8.72727272727273" style="13"/>
-    <col min="14" max="16384" width="8.72727272727273" style="11"/>
+    <col min="1" max="1" width="8.72727272727273" style="12"/>
+    <col min="2" max="2" width="8.09090909090909" style="12" customWidth="1"/>
+    <col min="3" max="3" width="7.36363636363636" style="12" customWidth="1"/>
+    <col min="4" max="4" width="38.9090909090909" style="12" customWidth="1"/>
+    <col min="5" max="5" width="102.636363636364" style="13" customWidth="1"/>
+    <col min="6" max="6" width="18" style="12" customWidth="1"/>
+    <col min="7" max="9" width="6.45454545454545" style="12" customWidth="1"/>
+    <col min="10" max="10" width="8.09090909090909" style="12" customWidth="1"/>
+    <col min="11" max="11" width="91.6363636363636" style="12" customWidth="1"/>
+    <col min="12" max="12" width="49.2727272727273" style="12" customWidth="1"/>
+    <col min="13" max="13" width="8.72727272727273" style="14"/>
+    <col min="14" max="16384" width="8.72727272727273" style="12"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="G1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="H1" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="I1" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="14" t="s">
+      <c r="J1" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="14"/>
-      <c r="L1" s="11" t="s">
+      <c r="K1" s="15"/>
+      <c r="L1" s="12" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:12">
-      <c r="A2" s="11">
+      <c r="A2" s="12">
         <v>1</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="E2" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="F2" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="12">
+      <c r="G2" s="13">
         <v>65</v>
       </c>
-      <c r="H2" s="11">
+      <c r="H2" s="12">
         <v>5</v>
       </c>
-      <c r="I2" s="11">
+      <c r="I2" s="12">
         <v>250</v>
       </c>
-      <c r="J2" s="11" t="s">
+      <c r="J2" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="K2" s="11" t="s">
+      <c r="K2" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="L2" s="11" t="s">
+      <c r="L2" s="12" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:12">
-      <c r="A3" s="11">
+      <c r="A3" s="12">
         <v>2</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="15" t="s">
+      <c r="E3" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="J3" s="11" t="s">
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="J3" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="K3" s="11" t="s">
+      <c r="K3" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="L3" s="11" t="s">
+      <c r="L3" s="12" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:12">
-      <c r="A4" s="11">
+      <c r="A4" s="12">
         <v>3</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="15" t="s">
+      <c r="E4" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="J4" s="11" t="s">
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="J4" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="K4" s="11" t="s">
+      <c r="K4" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="L4" s="11" t="s">
+      <c r="L4" s="12" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5" s="11">
+      <c r="A5" s="12">
         <v>4</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="15" t="s">
+      <c r="E5" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="J5" s="11" t="s">
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="J5" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="K5" s="11" t="s">
+      <c r="K5" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="L5" s="11" t="s">
+      <c r="L5" s="12" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:12">
-      <c r="A6" s="11">
+      <c r="A6" s="12">
         <v>5</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="D6" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="E6" s="15" t="s">
+      <c r="E6" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="F6" s="12"/>
-      <c r="G6" s="15"/>
-      <c r="J6" s="11" t="s">
+      <c r="F6" s="13"/>
+      <c r="G6" s="16"/>
+      <c r="J6" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="K6" s="11" t="s">
+      <c r="K6" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="L6" s="15" t="s">
+      <c r="L6" s="16" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:12">
-      <c r="A7" s="11">
+      <c r="A7" s="12">
         <v>6</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="E7" s="16">
+      <c r="E7" s="17">
         <v>10</v>
       </c>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="J7" s="11" t="s">
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="J7" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="K7" s="11" t="s">
+      <c r="K7" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="L7" s="11" t="s">
+      <c r="L7" s="12" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:12">
-      <c r="A8" s="11">
+      <c r="A8" s="12">
         <v>7</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="E8" s="15" t="s">
+      <c r="E8" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="J8" s="11" t="s">
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="J8" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="K8" s="11" t="s">
+      <c r="K8" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="L8" s="11" t="s">
+      <c r="L8" s="12" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:12">
-      <c r="A9" s="11">
+      <c r="A9" s="12">
         <v>8</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="E9" s="13"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-      <c r="J9" s="11" t="s">
+      <c r="E9" s="14"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="J9" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="K9" s="11" t="s">
+      <c r="K9" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="L9" s="11" t="s">
+      <c r="L9" s="12" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:12">
-      <c r="A10" s="11">
+      <c r="A10" s="12">
         <v>1</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="D10" s="11" t="s">
+      <c r="D10" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="E10" s="15" t="s">
+      <c r="E10" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="F10" s="11" t="s">
+      <c r="F10" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="G10" s="12">
+      <c r="G10" s="13">
         <v>66</v>
       </c>
-      <c r="H10" s="11">
+      <c r="H10" s="12">
         <v>6</v>
       </c>
-      <c r="I10" s="11">
+      <c r="I10" s="12">
         <v>200</v>
       </c>
-      <c r="J10" s="11" t="s">
+      <c r="J10" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="K10" s="11" t="s">
+      <c r="K10" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="L10" s="11" t="s">
+      <c r="L10" s="12" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="11">
+      <c r="A11" s="12">
         <v>2</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="C11" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="D11" s="11" t="s">
+      <c r="D11" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="E11" s="16" t="s">
+      <c r="E11" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="J11" s="11" t="s">
+      <c r="J11" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="K11" s="11" t="s">
+      <c r="K11" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="L11" s="11" t="s">
+      <c r="L11" s="12" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12" s="11">
+      <c r="A12" s="12">
         <v>3</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="C12" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="D12" s="11" t="s">
+      <c r="D12" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="E12" s="15" t="s">
+      <c r="E12" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="J12" s="11" t="s">
+      <c r="J12" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="K12" s="11" t="s">
+      <c r="K12" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="L12" s="11" t="s">
+      <c r="L12" s="12" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:12">
-      <c r="A13" s="11">
+      <c r="A13" s="12">
         <v>4</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="C13" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="D13" s="11" t="s">
+      <c r="D13" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="E13" s="15" t="s">
+      <c r="E13" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="J13" s="11" t="s">
+      <c r="J13" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="K13" s="11" t="s">
+      <c r="K13" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="L13" s="11" t="s">
+      <c r="L13" s="12" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="14" spans="1:12">
-      <c r="A14" s="11">
+      <c r="A14" s="12">
         <v>5</v>
       </c>
-      <c r="B14" s="11" t="s">
+      <c r="B14" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="C14" s="11" t="s">
+      <c r="C14" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="11" t="s">
+      <c r="D14" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="E14" s="15" t="s">
+      <c r="E14" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="J14" s="11" t="s">
+      <c r="J14" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="K14" s="11" t="s">
+      <c r="K14" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="L14" s="15" t="s">
+      <c r="L14" s="16" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:12">
-      <c r="A15" s="11">
+      <c r="A15" s="12">
         <v>6</v>
       </c>
-      <c r="B15" s="11" t="s">
+      <c r="B15" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="D15" s="11" t="s">
+      <c r="D15" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="E15" s="15" t="s">
+      <c r="E15" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="J15" s="11" t="s">
+      <c r="J15" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="K15" s="11" t="s">
+      <c r="K15" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="L15" s="11" t="s">
+      <c r="L15" s="12" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:12">
-      <c r="A16" s="11">
+      <c r="A16" s="12">
         <v>7</v>
       </c>
-      <c r="B16" s="11" t="s">
+      <c r="B16" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="E16" s="13"/>
-      <c r="J16" s="11" t="s">
+      <c r="E16" s="14"/>
+      <c r="J16" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="K16" s="11" t="s">
+      <c r="K16" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="L16" s="11" t="s">
+      <c r="L16" s="12" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="17" spans="1:12">
-      <c r="A17" s="11">
+      <c r="A17" s="12">
         <v>8</v>
       </c>
-      <c r="B17" s="11" t="s">
+      <c r="B17" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="E17" s="13"/>
-      <c r="J17" s="11" t="s">
+      <c r="E17" s="14"/>
+      <c r="J17" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="K17" s="11" t="s">
+      <c r="K17" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="L17" s="11" t="s">
+      <c r="L17" s="12" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="18" spans="1:12">
-      <c r="A18" s="11">
+      <c r="A18" s="12">
         <v>1</v>
       </c>
-      <c r="B18" s="11" t="s">
+      <c r="B18" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="D18" s="11" t="s">
+      <c r="D18" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="E18" s="15" t="s">
+      <c r="E18" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="F18" s="11" t="s">
+      <c r="F18" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="G18" s="11">
+      <c r="G18" s="12">
         <v>64</v>
       </c>
-      <c r="H18" s="11">
+      <c r="H18" s="12">
         <v>3</v>
       </c>
-      <c r="I18" s="11">
+      <c r="I18" s="12">
         <v>200</v>
       </c>
-      <c r="J18" s="11" t="s">
+      <c r="J18" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="K18" s="11" t="s">
+      <c r="K18" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="L18" s="11" t="s">
+      <c r="L18" s="12" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:12">
-      <c r="A19" s="11">
+      <c r="A19" s="12">
         <v>2</v>
       </c>
-      <c r="B19" s="11" t="s">
+      <c r="B19" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="C19" s="11" t="s">
+      <c r="C19" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="D19" s="11" t="s">
+      <c r="D19" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="E19" s="15" t="s">
+      <c r="E19" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="J19" s="11" t="s">
+      <c r="J19" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="K19" s="11" t="s">
+      <c r="K19" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="L19" s="11" t="s">
+      <c r="L19" s="12" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="20" spans="1:12">
-      <c r="A20" s="11">
+      <c r="A20" s="12">
         <v>3</v>
       </c>
-      <c r="B20" s="11" t="s">
+      <c r="B20" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="C20" s="11" t="s">
+      <c r="C20" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="D20" s="11" t="s">
+      <c r="D20" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="E20" s="15" t="s">
+      <c r="E20" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="J20" s="11" t="s">
+      <c r="J20" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="K20" s="11" t="s">
+      <c r="K20" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="L20" s="11" t="s">
+      <c r="L20" s="12" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="21" spans="1:12">
-      <c r="A21" s="11">
+      <c r="A21" s="12">
         <v>4</v>
       </c>
-      <c r="B21" s="11" t="s">
+      <c r="B21" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="D21" s="11" t="s">
+      <c r="D21" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="E21" s="16">
+      <c r="E21" s="17">
         <v>10</v>
       </c>
-      <c r="J21" s="11" t="s">
+      <c r="J21" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="K21" s="11" t="s">
+      <c r="K21" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="L21" s="11" t="s">
+      <c r="L21" s="12" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="22" spans="1:12">
-      <c r="A22" s="11">
+      <c r="A22" s="12">
         <v>5</v>
       </c>
-      <c r="B22" s="11" t="s">
+      <c r="B22" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="D22" s="11" t="s">
+      <c r="D22" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="E22" s="15" t="s">
+      <c r="E22" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="J22" s="11" t="s">
+      <c r="J22" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="K22" s="11" t="s">
+      <c r="K22" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="L22" s="15" t="s">
+      <c r="L22" s="16" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="23" spans="1:12">
-      <c r="A23" s="11">
+      <c r="A23" s="12">
         <v>6</v>
       </c>
-      <c r="B23" s="11" t="s">
+      <c r="B23" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="E23" s="13"/>
-      <c r="J23" s="11" t="s">
+      <c r="E23" s="14"/>
+      <c r="J23" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="K23" s="11" t="s">
+      <c r="K23" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="L23" s="11" t="s">
+      <c r="L23" s="12" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="24" spans="1:12">
-      <c r="A24" s="11">
+      <c r="A24" s="12">
         <v>7</v>
       </c>
-      <c r="B24" s="11" t="s">
+      <c r="B24" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="E24" s="13"/>
-      <c r="J24" s="11" t="s">
+      <c r="E24" s="14"/>
+      <c r="J24" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="K24" s="11" t="s">
+      <c r="K24" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="L24" s="11" t="s">
+      <c r="L24" s="12" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="25" spans="1:12">
-      <c r="A25" s="11">
+      <c r="A25" s="12">
         <v>8</v>
       </c>
-      <c r="B25" s="11" t="s">
+      <c r="B25" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="E25" s="13"/>
-      <c r="J25" s="11" t="s">
+      <c r="E25" s="14"/>
+      <c r="J25" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="K25" s="11" t="s">
+      <c r="K25" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="L25" s="11" t="s">
+      <c r="L25" s="12" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="26" spans="1:12">
-      <c r="A26" s="11">
+      <c r="A26" s="12">
         <v>1</v>
       </c>
-      <c r="B26" s="11" t="s">
+      <c r="B26" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="D26" s="11" t="s">
+      <c r="D26" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="E26" s="15" t="s">
+      <c r="E26" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="F26" s="11" t="s">
+      <c r="F26" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="G26" s="11">
+      <c r="G26" s="12">
         <v>64</v>
       </c>
-      <c r="H26" s="11">
+      <c r="H26" s="12">
         <v>3</v>
       </c>
-      <c r="I26" s="11">
+      <c r="I26" s="12">
         <v>300</v>
       </c>
-      <c r="J26" s="11" t="s">
+      <c r="J26" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="K26" s="11" t="s">
+      <c r="K26" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="L26" s="15" t="s">
+      <c r="L26" s="16" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="27" spans="1:12">
-      <c r="A27" s="11">
+      <c r="A27" s="12">
         <v>2</v>
       </c>
-      <c r="B27" s="11" t="s">
+      <c r="B27" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="C27" s="11" t="s">
+      <c r="C27" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="D27" s="11" t="s">
+      <c r="D27" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="E27" s="15" t="s">
+      <c r="E27" s="16" t="s">
         <v>102</v>
       </c>
-      <c r="J27" s="11" t="s">
+      <c r="J27" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="K27" s="11" t="s">
+      <c r="K27" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="L27" s="15" t="s">
+      <c r="L27" s="16" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="28" spans="1:12">
-      <c r="A28" s="11">
+      <c r="A28" s="12">
         <v>3</v>
       </c>
-      <c r="B28" s="11" t="s">
+      <c r="B28" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="C28" s="11" t="s">
+      <c r="C28" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="D28" s="11" t="s">
+      <c r="D28" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="E28" s="15" t="s">
+      <c r="E28" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="J28" s="11" t="s">
+      <c r="J28" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="K28" s="11" t="s">
+      <c r="K28" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="L28" s="11" t="s">
+      <c r="L28" s="12" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="29" spans="1:12">
-      <c r="A29" s="11">
+      <c r="A29" s="12">
         <v>4</v>
       </c>
-      <c r="B29" s="11" t="s">
+      <c r="B29" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="C29" s="11" t="s">
+      <c r="C29" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="D29" s="11" t="s">
+      <c r="D29" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="E29" s="15" t="s">
+      <c r="E29" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="J29" s="11" t="s">
+      <c r="J29" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="K29" s="11" t="s">
+      <c r="K29" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="L29" s="15" t="s">
+      <c r="L29" s="16" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="30" spans="1:12">
-      <c r="A30" s="11">
+      <c r="A30" s="12">
         <v>5</v>
       </c>
-      <c r="B30" s="11" t="s">
+      <c r="B30" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="D30" s="11" t="s">
+      <c r="D30" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="E30" s="15" t="s">
+      <c r="E30" s="16" t="s">
         <v>111</v>
       </c>
-      <c r="J30" s="11" t="s">
+      <c r="J30" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="K30" s="11" t="s">
+      <c r="K30" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="L30" s="15" t="s">
+      <c r="L30" s="16" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="31" spans="1:12">
-      <c r="A31" s="11">
+      <c r="A31" s="12">
         <v>6</v>
       </c>
-      <c r="B31" s="11" t="s">
+      <c r="B31" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="D31" s="11" t="s">
+      <c r="D31" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="E31" s="16">
+      <c r="E31" s="17">
         <v>10</v>
       </c>
-      <c r="J31" s="11" t="s">
+      <c r="J31" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="K31" s="11" t="s">
+      <c r="K31" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="L31" s="11" t="s">
+      <c r="L31" s="12" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="32" spans="1:12">
-      <c r="A32" s="11">
+      <c r="A32" s="12">
         <v>7</v>
       </c>
-      <c r="B32" s="11" t="s">
+      <c r="B32" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="E32" s="13"/>
-      <c r="J32" s="11" t="s">
+      <c r="E32" s="14"/>
+      <c r="J32" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="K32" s="11" t="s">
+      <c r="K32" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="L32" s="11" t="s">
+      <c r="L32" s="12" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="33" spans="1:13">
-      <c r="A33" s="11">
+      <c r="A33" s="12">
         <v>8</v>
       </c>
-      <c r="B33" s="11" t="s">
+      <c r="B33" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="E33" s="13"/>
-      <c r="J33" s="11" t="s">
+      <c r="E33" s="14"/>
+      <c r="J33" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="K33" s="11" t="s">
+      <c r="K33" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="L33" s="11" t="s">
+      <c r="L33" s="12" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="34" spans="1:13">
-      <c r="A34" s="11">
+      <c r="A34" s="12">
         <v>1</v>
       </c>
-      <c r="B34" s="11" t="s">
+      <c r="B34" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="D34" s="11" t="s">
+      <c r="D34" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="E34" s="15" t="s">
+      <c r="E34" s="16" t="s">
         <v>115</v>
       </c>
-      <c r="F34" s="11" t="s">
+      <c r="F34" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="G34" s="11">
+      <c r="G34" s="12">
         <v>66</v>
       </c>
-      <c r="H34" s="11">
+      <c r="H34" s="12">
         <v>5</v>
       </c>
-      <c r="I34" s="11">
+      <c r="I34" s="12">
         <v>230</v>
       </c>
-      <c r="J34" s="11" t="s">
+      <c r="J34" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="K34" s="11" t="s">
+      <c r="K34" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="L34" s="11" t="s">
+      <c r="L34" s="12" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="35" spans="1:13">
-      <c r="A35" s="11">
+      <c r="A35" s="12">
         <v>2</v>
       </c>
-      <c r="B35" s="11" t="s">
+      <c r="B35" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="C35" s="11" t="s">
+      <c r="C35" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="D35" s="11" t="s">
+      <c r="D35" s="12" t="s">
         <v>118</v>
       </c>
-      <c r="E35" s="15" t="s">
+      <c r="E35" s="16" t="s">
         <v>119</v>
       </c>
-      <c r="J35" s="11" t="s">
+      <c r="J35" s="12" t="s">
         <v>120</v>
       </c>
-      <c r="K35" s="11" t="s">
+      <c r="K35" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="L35" s="11" t="s">
+      <c r="L35" s="12" t="s">
         <v>122</v>
       </c>
     </row>
@@ -6401,7 +6410,7 @@
       <c r="D36" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="E36" s="17" t="s">
+      <c r="E36" s="18" t="s">
         <v>124</v>
       </c>
       <c r="J36" s="10" t="s">
@@ -6413,164 +6422,164 @@
       <c r="L36" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="M36" s="18"/>
+      <c r="M36" s="19"/>
     </row>
     <row r="37" spans="1:13">
-      <c r="A37" s="11">
+      <c r="A37" s="12">
         <v>4</v>
       </c>
-      <c r="B37" s="11" t="s">
+      <c r="B37" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="C37" s="11" t="s">
+      <c r="C37" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="D37" s="11" t="s">
+      <c r="D37" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="E37" s="15" t="s">
+      <c r="E37" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="J37" s="11" t="s">
+      <c r="J37" s="12" t="s">
         <v>126</v>
       </c>
-      <c r="K37" s="11" t="s">
+      <c r="K37" s="12" t="s">
         <v>127</v>
       </c>
-      <c r="L37" s="15" t="s">
+      <c r="L37" s="16" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="38" spans="1:13">
-      <c r="A38" s="11">
+      <c r="A38" s="12">
         <v>5</v>
       </c>
-      <c r="B38" s="11" t="s">
+      <c r="B38" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="C38" s="11" t="s">
+      <c r="C38" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="D38" s="11" t="s">
+      <c r="D38" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="E38" s="15" t="s">
+      <c r="E38" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="J38" s="11" t="s">
+      <c r="J38" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="K38" s="11" t="s">
+      <c r="K38" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="L38" s="15" t="s">
+      <c r="L38" s="16" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="39" spans="1:13">
-      <c r="A39" s="11">
+      <c r="A39" s="12">
         <v>6</v>
       </c>
-      <c r="B39" s="11" t="s">
+      <c r="B39" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="C39" s="11" t="s">
+      <c r="C39" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="D39" s="11" t="s">
+      <c r="D39" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="E39" s="15" t="s">
+      <c r="E39" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="J39" s="11" t="s">
+      <c r="J39" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="K39" s="11" t="s">
+      <c r="K39" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="L39" s="11" t="s">
+      <c r="L39" s="12" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="40" spans="1:13">
-      <c r="A40" s="11">
+      <c r="A40" s="12">
         <v>7</v>
       </c>
-      <c r="B40" s="11" t="s">
+      <c r="B40" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="D40" s="11" t="s">
+      <c r="D40" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="E40" s="15" t="s">
+      <c r="E40" s="16" t="s">
         <v>129</v>
       </c>
-      <c r="J40" s="11" t="s">
+      <c r="J40" s="12" t="s">
         <v>130</v>
       </c>
-      <c r="K40" s="11" t="s">
+      <c r="K40" s="12" t="s">
         <v>131</v>
       </c>
-      <c r="L40" s="11" t="s">
+      <c r="L40" s="12" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="41" spans="1:13">
-      <c r="A41" s="11">
+      <c r="A41" s="12">
         <v>8</v>
       </c>
-      <c r="B41" s="11" t="s">
+      <c r="B41" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="D41" s="11" t="s">
+      <c r="D41" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="E41" s="16">
+      <c r="E41" s="17">
         <v>10</v>
       </c>
-      <c r="J41" s="11" t="s">
+      <c r="J41" s="12" t="s">
         <v>133</v>
       </c>
-      <c r="K41" s="11" t="s">
+      <c r="K41" s="12" t="s">
         <v>134</v>
       </c>
-      <c r="L41" s="11" t="s">
+      <c r="L41" s="12" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="42" spans="1:13">
-      <c r="A42" s="11">
+      <c r="A42" s="12">
         <v>1</v>
       </c>
-      <c r="B42" s="11" t="s">
+      <c r="B42" s="12" t="s">
         <v>136</v>
       </c>
-      <c r="D42" s="11" t="s">
+      <c r="D42" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="E42" s="15" t="s">
+      <c r="E42" s="16" t="s">
         <v>137</v>
       </c>
-      <c r="F42" s="11" t="s">
+      <c r="F42" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="G42" s="11">
+      <c r="G42" s="12">
         <v>74</v>
       </c>
-      <c r="H42" s="11">
+      <c r="H42" s="12">
         <v>5</v>
       </c>
-      <c r="I42" s="11">
+      <c r="I42" s="12">
         <v>250</v>
       </c>
-      <c r="J42" s="11" t="s">
+      <c r="J42" s="12" t="s">
         <v>138</v>
       </c>
-      <c r="K42" s="11" t="s">
+      <c r="K42" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="L42" s="11" t="s">
+      <c r="L42" s="12" t="s">
         <v>52</v>
       </c>
     </row>
@@ -6587,7 +6596,7 @@
       <c r="D43" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="E43" s="17" t="s">
+      <c r="E43" s="18" t="s">
         <v>140</v>
       </c>
       <c r="J43" s="10" t="s">
@@ -6599,7 +6608,7 @@
       <c r="L43" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="M43" s="18"/>
+      <c r="M43" s="19"/>
     </row>
     <row r="44" s="10" customFormat="1" spans="1:13">
       <c r="A44" s="10">
@@ -6614,7 +6623,7 @@
       <c r="D44" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="E44" s="17" t="s">
+      <c r="E44" s="18" t="s">
         <v>143</v>
       </c>
       <c r="J44" s="10" t="s">
@@ -6626,159 +6635,159 @@
       <c r="L44" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="M44" s="18"/>
+      <c r="M44" s="19"/>
     </row>
     <row r="45" spans="1:13">
-      <c r="A45" s="11">
+      <c r="A45" s="12">
         <v>4</v>
       </c>
-      <c r="B45" s="11" t="s">
+      <c r="B45" s="12" t="s">
         <v>136</v>
       </c>
-      <c r="C45" s="11" t="s">
+      <c r="C45" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="D45" s="11" t="s">
+      <c r="D45" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="E45" s="15" t="s">
+      <c r="E45" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="J45" s="11" t="s">
+      <c r="J45" s="12" t="s">
         <v>126</v>
       </c>
-      <c r="K45" s="11" t="s">
+      <c r="K45" s="12" t="s">
         <v>145</v>
       </c>
-      <c r="L45" s="15" t="s">
+      <c r="L45" s="16" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="46" spans="1:13">
-      <c r="A46" s="11">
+      <c r="A46" s="12">
         <v>5</v>
       </c>
-      <c r="B46" s="11" t="s">
+      <c r="B46" s="12" t="s">
         <v>136</v>
       </c>
-      <c r="C46" s="11" t="s">
+      <c r="C46" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="D46" s="11" t="s">
+      <c r="D46" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="E46" s="15" t="s">
+      <c r="E46" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="J46" s="11" t="s">
+      <c r="J46" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="K46" s="11" t="s">
+      <c r="K46" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="L46" s="15" t="s">
+      <c r="L46" s="16" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="47" spans="1:13">
-      <c r="A47" s="11">
+      <c r="A47" s="12">
         <v>6</v>
       </c>
-      <c r="B47" s="11" t="s">
+      <c r="B47" s="12" t="s">
         <v>136</v>
       </c>
-      <c r="C47" s="11" t="s">
+      <c r="C47" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="D47" s="11" t="s">
+      <c r="D47" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="E47" s="15" t="s">
+      <c r="E47" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="J47" s="11" t="s">
+      <c r="J47" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="K47" s="11" t="s">
+      <c r="K47" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="L47" s="11" t="s">
+      <c r="L47" s="12" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="48" spans="1:13">
-      <c r="A48" s="11">
+      <c r="A48" s="12">
         <v>7</v>
       </c>
-      <c r="B48" s="11" t="s">
+      <c r="B48" s="12" t="s">
         <v>136</v>
       </c>
-      <c r="D48" s="11" t="s">
+      <c r="D48" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="E48" s="16">
+      <c r="E48" s="17">
         <v>10</v>
       </c>
-      <c r="J48" s="11" t="s">
+      <c r="J48" s="12" t="s">
         <v>147</v>
       </c>
-      <c r="K48" s="11" t="s">
+      <c r="K48" s="12" t="s">
         <v>131</v>
       </c>
-      <c r="L48" s="11" t="s">
+      <c r="L48" s="12" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="49" spans="1:13">
-      <c r="A49" s="11">
+      <c r="A49" s="12">
         <v>8</v>
       </c>
-      <c r="B49" s="11" t="s">
+      <c r="B49" s="12" t="s">
         <v>136</v>
       </c>
-      <c r="E49" s="13"/>
-      <c r="J49" s="11" t="s">
+      <c r="E49" s="14"/>
+      <c r="J49" s="12" t="s">
         <v>148</v>
       </c>
-      <c r="K49" s="11" t="s">
+      <c r="K49" s="12" t="s">
         <v>134</v>
       </c>
-      <c r="L49" s="11" t="s">
+      <c r="L49" s="12" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="50" spans="1:13">
-      <c r="A50" s="11">
+      <c r="A50" s="12">
         <v>1</v>
       </c>
-      <c r="B50" s="11" t="s">
+      <c r="B50" s="12" t="s">
         <v>149</v>
       </c>
-      <c r="D50" s="11" t="s">
+      <c r="D50" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="E50" s="15" t="s">
+      <c r="E50" s="16" t="s">
         <v>150</v>
       </c>
-      <c r="F50" s="11" t="s">
+      <c r="F50" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="G50" s="11">
+      <c r="G50" s="12">
         <v>76</v>
       </c>
-      <c r="H50" s="11">
+      <c r="H50" s="12">
         <v>3</v>
       </c>
-      <c r="I50" s="11">
+      <c r="I50" s="12">
         <v>300</v>
       </c>
-      <c r="J50" s="11" t="s">
+      <c r="J50" s="12" t="s">
         <v>151</v>
       </c>
-      <c r="K50" s="11" t="s">
+      <c r="K50" s="12" t="s">
         <v>152</v>
       </c>
-      <c r="L50" s="11" t="s">
+      <c r="L50" s="12" t="s">
         <v>44</v>
       </c>
     </row>
@@ -6795,7 +6804,7 @@
       <c r="D51" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="E51" s="17" t="s">
+      <c r="E51" s="18" t="s">
         <v>154</v>
       </c>
       <c r="J51" s="10" t="s">
@@ -6807,568 +6816,568 @@
       <c r="L51" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="M51" s="18"/>
+      <c r="M51" s="19"/>
     </row>
     <row r="52" spans="1:13">
-      <c r="A52" s="11">
+      <c r="A52" s="12">
         <v>3</v>
       </c>
-      <c r="B52" s="11" t="s">
+      <c r="B52" s="12" t="s">
         <v>149</v>
       </c>
-      <c r="D52" s="11" t="s">
+      <c r="D52" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="E52" s="16">
+      <c r="E52" s="17">
         <v>10</v>
       </c>
-      <c r="J52" s="11" t="s">
+      <c r="J52" s="12" t="s">
         <v>158</v>
       </c>
-      <c r="K52" s="11" t="s">
+      <c r="K52" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="L52" s="11" t="s">
+      <c r="L52" s="12" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="53" spans="1:13">
-      <c r="A53" s="11">
+      <c r="A53" s="12">
         <v>4</v>
       </c>
-      <c r="B53" s="11" t="s">
+      <c r="B53" s="12" t="s">
         <v>149</v>
       </c>
-      <c r="C53" s="11" t="s">
+      <c r="C53" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="D53" s="11" t="s">
+      <c r="D53" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="E53" s="15" t="s">
+      <c r="E53" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="J53" s="11" t="s">
+      <c r="J53" s="12" t="s">
         <v>159</v>
       </c>
-      <c r="K53" s="11" t="s">
+      <c r="K53" s="12" t="s">
         <v>160</v>
       </c>
-      <c r="L53" s="15" t="s">
+      <c r="L53" s="16" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="54" spans="1:13">
-      <c r="A54" s="11">
+      <c r="A54" s="12">
         <v>5</v>
       </c>
-      <c r="B54" s="11" t="s">
+      <c r="B54" s="12" t="s">
         <v>149</v>
       </c>
-      <c r="C54" s="11" t="s">
+      <c r="C54" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="D54" s="11" t="s">
+      <c r="D54" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="E54" s="15" t="s">
+      <c r="E54" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="J54" s="11" t="s">
+      <c r="J54" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="K54" s="11" t="s">
+      <c r="K54" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="L54" s="15" t="s">
+      <c r="L54" s="16" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="55" spans="1:13">
-      <c r="A55" s="11">
+      <c r="A55" s="12">
         <v>6</v>
       </c>
-      <c r="B55" s="11" t="s">
+      <c r="B55" s="12" t="s">
         <v>149</v>
       </c>
-      <c r="C55" s="11" t="s">
+      <c r="C55" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="D55" s="11" t="s">
+      <c r="D55" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="E55" s="15" t="s">
+      <c r="E55" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="J55" s="11" t="s">
+      <c r="J55" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="K55" s="11" t="s">
+      <c r="K55" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="L55" s="11" t="s">
+      <c r="L55" s="12" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="56" spans="1:13">
-      <c r="A56" s="11">
+      <c r="A56" s="12">
         <v>7</v>
       </c>
-      <c r="B56" s="11" t="s">
+      <c r="B56" s="12" t="s">
         <v>149</v>
       </c>
-      <c r="E56" s="13"/>
-      <c r="J56" s="11" t="s">
+      <c r="E56" s="14"/>
+      <c r="J56" s="12" t="s">
         <v>162</v>
       </c>
-      <c r="K56" s="11" t="s">
+      <c r="K56" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="L56" s="11" t="s">
+      <c r="L56" s="12" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="57" spans="1:13">
-      <c r="A57" s="11">
+      <c r="A57" s="12">
         <v>8</v>
       </c>
-      <c r="B57" s="11" t="s">
+      <c r="B57" s="12" t="s">
         <v>149</v>
       </c>
-      <c r="E57" s="13"/>
-      <c r="J57" s="11" t="s">
+      <c r="E57" s="14"/>
+      <c r="J57" s="12" t="s">
         <v>163</v>
       </c>
-      <c r="K57" s="11" t="s">
+      <c r="K57" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="L57" s="11" t="s">
+      <c r="L57" s="12" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="58" spans="1:13">
-      <c r="A58" s="11">
+      <c r="A58" s="12">
         <v>1</v>
       </c>
-      <c r="B58" s="11" t="s">
+      <c r="B58" s="12" t="s">
         <v>164</v>
       </c>
-      <c r="D58" s="11" t="s">
+      <c r="D58" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="E58" s="15" t="s">
+      <c r="E58" s="16" t="s">
         <v>165</v>
       </c>
-      <c r="F58" s="11" t="s">
+      <c r="F58" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="G58" s="11">
+      <c r="G58" s="12">
         <v>75</v>
       </c>
-      <c r="H58" s="11">
+      <c r="H58" s="12">
         <v>5</v>
       </c>
-      <c r="I58" s="11">
+      <c r="I58" s="12">
         <v>250</v>
       </c>
-      <c r="J58" s="11" t="s">
+      <c r="J58" s="12" t="s">
         <v>166</v>
       </c>
-      <c r="K58" s="11" t="s">
+      <c r="K58" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="L58" s="11" t="s">
+      <c r="L58" s="12" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="59" spans="1:13">
-      <c r="A59" s="11">
+      <c r="A59" s="12">
         <v>2</v>
       </c>
-      <c r="B59" s="11" t="s">
+      <c r="B59" s="12" t="s">
         <v>164</v>
       </c>
-      <c r="C59" s="11" t="s">
+      <c r="C59" s="12" t="s">
         <v>167</v>
       </c>
-      <c r="D59" s="11" t="s">
+      <c r="D59" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="E59" s="16">
+      <c r="E59" s="17">
         <v>70</v>
       </c>
-      <c r="J59" s="11" t="s">
+      <c r="J59" s="12" t="s">
         <v>168</v>
       </c>
-      <c r="K59" s="11" t="s">
+      <c r="K59" s="12" t="s">
         <v>169</v>
       </c>
-      <c r="L59" s="11" t="s">
+      <c r="L59" s="12" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="60" spans="1:13">
-      <c r="A60" s="11">
+      <c r="A60" s="12">
         <v>3</v>
       </c>
-      <c r="B60" s="11" t="s">
+      <c r="B60" s="12" t="s">
         <v>164</v>
       </c>
-      <c r="C60" s="11" t="s">
+      <c r="C60" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="D60" s="11" t="s">
+      <c r="D60" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="E60" s="15" t="s">
+      <c r="E60" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="J60" s="11" t="s">
+      <c r="J60" s="12" t="s">
         <v>171</v>
       </c>
-      <c r="K60" s="11" t="s">
+      <c r="K60" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="L60" s="11" t="s">
+      <c r="L60" s="12" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="61" spans="1:13">
-      <c r="A61" s="11">
+      <c r="A61" s="12">
         <v>4</v>
       </c>
-      <c r="B61" s="11" t="s">
+      <c r="B61" s="12" t="s">
         <v>164</v>
       </c>
-      <c r="C61" s="11" t="s">
+      <c r="C61" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="D61" s="11" t="s">
+      <c r="D61" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="E61" s="15" t="s">
+      <c r="E61" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="J61" s="11" t="s">
+      <c r="J61" s="12" t="s">
         <v>159</v>
       </c>
-      <c r="K61" s="11" t="s">
+      <c r="K61" s="12" t="s">
         <v>160</v>
       </c>
-      <c r="L61" s="15" t="s">
+      <c r="L61" s="16" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="62" spans="1:13">
-      <c r="A62" s="11">
+      <c r="A62" s="12">
         <v>5</v>
       </c>
-      <c r="B62" s="11" t="s">
+      <c r="B62" s="12" t="s">
         <v>164</v>
       </c>
-      <c r="C62" s="11" t="s">
+      <c r="C62" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="D62" s="11" t="s">
+      <c r="D62" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="E62" s="15" t="s">
+      <c r="E62" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="J62" s="11" t="s">
+      <c r="J62" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="K62" s="11" t="s">
+      <c r="K62" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="L62" s="15" t="s">
+      <c r="L62" s="16" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="63" spans="1:13">
-      <c r="A63" s="11">
+      <c r="A63" s="12">
         <v>6</v>
       </c>
-      <c r="B63" s="11" t="s">
+      <c r="B63" s="12" t="s">
         <v>164</v>
       </c>
-      <c r="E63" s="13"/>
-      <c r="J63" s="11" t="s">
+      <c r="E63" s="14"/>
+      <c r="J63" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="K63" s="11" t="s">
+      <c r="K63" s="12" t="s">
         <v>172</v>
       </c>
-      <c r="L63" s="11" t="s">
+      <c r="L63" s="12" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="64" spans="1:13">
-      <c r="A64" s="11">
+      <c r="A64" s="12">
         <v>7</v>
       </c>
-      <c r="B64" s="11" t="s">
+      <c r="B64" s="12" t="s">
         <v>164</v>
       </c>
-      <c r="E64" s="13"/>
-      <c r="J64" s="11" t="s">
+      <c r="E64" s="14"/>
+      <c r="J64" s="12" t="s">
         <v>173</v>
       </c>
-      <c r="K64" s="11" t="s">
+      <c r="K64" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="L64" s="11" t="s">
+      <c r="L64" s="12" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="65" spans="1:13">
-      <c r="A65" s="11">
+      <c r="A65" s="12">
         <v>8</v>
       </c>
-      <c r="B65" s="11" t="s">
+      <c r="B65" s="12" t="s">
         <v>164</v>
       </c>
-      <c r="E65" s="13"/>
-      <c r="J65" s="11" t="s">
+      <c r="E65" s="14"/>
+      <c r="J65" s="12" t="s">
         <v>174</v>
       </c>
-      <c r="K65" s="11" t="s">
+      <c r="K65" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="L65" s="11" t="s">
+      <c r="L65" s="12" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="66" spans="1:13">
-      <c r="A66" s="11">
+      <c r="A66" s="12">
         <v>1</v>
       </c>
-      <c r="B66" s="11" t="s">
+      <c r="B66" s="12" t="s">
         <v>175</v>
       </c>
-      <c r="D66" s="11" t="s">
+      <c r="D66" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="E66" s="15" t="s">
+      <c r="E66" s="16" t="s">
         <v>176</v>
       </c>
-      <c r="F66" s="11" t="s">
+      <c r="F66" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="G66" s="11">
+      <c r="G66" s="12">
         <v>73</v>
       </c>
-      <c r="H66" s="11">
+      <c r="H66" s="12">
         <v>4</v>
       </c>
-      <c r="I66" s="11">
+      <c r="I66" s="12">
         <v>240</v>
       </c>
-      <c r="J66" s="11" t="s">
+      <c r="J66" s="12" t="s">
         <v>177</v>
       </c>
-      <c r="K66" s="11" t="s">
+      <c r="K66" s="12" t="s">
         <v>178</v>
       </c>
-      <c r="L66" s="11" t="s">
+      <c r="L66" s="12" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="67" spans="1:13">
-      <c r="A67" s="11">
+      <c r="A67" s="12">
         <v>2</v>
       </c>
-      <c r="B67" s="11" t="s">
+      <c r="B67" s="12" t="s">
         <v>175</v>
       </c>
-      <c r="C67" s="11" t="s">
+      <c r="C67" s="12" t="s">
         <v>180</v>
       </c>
-      <c r="D67" s="11" t="s">
+      <c r="D67" s="12" t="s">
         <v>181</v>
       </c>
-      <c r="E67" s="15" t="s">
+      <c r="E67" s="16" t="s">
         <v>182</v>
       </c>
-      <c r="J67" s="11" t="s">
+      <c r="J67" s="12" t="s">
         <v>183</v>
       </c>
-      <c r="K67" s="11" t="s">
+      <c r="K67" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="L67" s="11" t="s">
+      <c r="L67" s="12" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="68" spans="1:13">
-      <c r="A68" s="11">
+      <c r="A68" s="12">
         <v>3</v>
       </c>
-      <c r="B68" s="11" t="s">
+      <c r="B68" s="12" t="s">
         <v>175</v>
       </c>
-      <c r="D68" s="11" t="s">
+      <c r="D68" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="E68" s="16">
+      <c r="E68" s="17">
         <v>30</v>
       </c>
-      <c r="J68" s="11" t="s">
+      <c r="J68" s="12" t="s">
         <v>184</v>
       </c>
-      <c r="K68" s="11" t="s">
+      <c r="K68" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="L68" s="11" t="s">
+      <c r="L68" s="12" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="69" spans="1:13">
-      <c r="A69" s="11">
+      <c r="A69" s="12">
         <v>4</v>
       </c>
-      <c r="B69" s="11" t="s">
+      <c r="B69" s="12" t="s">
         <v>175</v>
       </c>
-      <c r="C69" s="11" t="s">
+      <c r="C69" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="D69" s="11" t="s">
+      <c r="D69" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="E69" s="15" t="s">
+      <c r="E69" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="J69" s="11" t="s">
+      <c r="J69" s="12" t="s">
         <v>185</v>
       </c>
-      <c r="K69" s="11" t="s">
+      <c r="K69" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="L69" s="15" t="s">
+      <c r="L69" s="16" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="70" spans="1:13">
-      <c r="A70" s="11">
+      <c r="A70" s="12">
         <v>5</v>
       </c>
-      <c r="B70" s="11" t="s">
+      <c r="B70" s="12" t="s">
         <v>175</v>
       </c>
-      <c r="C70" s="11" t="s">
+      <c r="C70" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="D70" s="11" t="s">
+      <c r="D70" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="E70" s="15" t="s">
+      <c r="E70" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="J70" s="11" t="s">
+      <c r="J70" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="K70" s="11" t="s">
+      <c r="K70" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="L70" s="15" t="s">
+      <c r="L70" s="16" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="71" spans="1:13">
-      <c r="A71" s="11">
+      <c r="A71" s="12">
         <v>6</v>
       </c>
-      <c r="B71" s="11" t="s">
+      <c r="B71" s="12" t="s">
         <v>175</v>
       </c>
-      <c r="C71" s="11" t="s">
+      <c r="C71" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="D71" s="11" t="s">
+      <c r="D71" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="E71" s="15" t="s">
+      <c r="E71" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="J71" s="11" t="s">
+      <c r="J71" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="K71" s="11" t="s">
+      <c r="K71" s="12" t="s">
         <v>172</v>
       </c>
-      <c r="L71" s="11" t="s">
+      <c r="L71" s="12" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="72" spans="1:13">
-      <c r="A72" s="11">
+      <c r="A72" s="12">
         <v>7</v>
       </c>
-      <c r="B72" s="11" t="s">
+      <c r="B72" s="12" t="s">
         <v>175</v>
       </c>
-      <c r="E72" s="13"/>
-      <c r="J72" s="11" t="s">
+      <c r="E72" s="14"/>
+      <c r="J72" s="12" t="s">
         <v>186</v>
       </c>
-      <c r="K72" s="11" t="s">
+      <c r="K72" s="12" t="s">
         <v>131</v>
       </c>
-      <c r="L72" s="11" t="s">
+      <c r="L72" s="12" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="73" spans="1:13">
-      <c r="A73" s="11">
+      <c r="A73" s="12">
         <v>8</v>
       </c>
-      <c r="B73" s="11" t="s">
+      <c r="B73" s="12" t="s">
         <v>175</v>
       </c>
-      <c r="E73" s="13"/>
-      <c r="J73" s="11" t="s">
+      <c r="E73" s="14"/>
+      <c r="J73" s="12" t="s">
         <v>187</v>
       </c>
-      <c r="K73" s="11" t="s">
+      <c r="K73" s="12" t="s">
         <v>134</v>
       </c>
-      <c r="L73" s="11" t="s">
+      <c r="L73" s="12" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="74" spans="1:13">
-      <c r="A74" s="11">
+      <c r="A74" s="12">
         <v>1</v>
       </c>
-      <c r="B74" s="11" t="s">
+      <c r="B74" s="12" t="s">
         <v>188</v>
       </c>
-      <c r="D74" s="11" t="s">
+      <c r="D74" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="E74" s="15" t="s">
+      <c r="E74" s="16" t="s">
         <v>176</v>
       </c>
-      <c r="F74" s="11" t="s">
+      <c r="F74" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="G74" s="11">
+      <c r="G74" s="12">
         <v>74</v>
       </c>
-      <c r="H74" s="11">
+      <c r="H74" s="12">
         <v>5</v>
       </c>
-      <c r="I74" s="11">
+      <c r="I74" s="12">
         <v>280</v>
       </c>
-      <c r="J74" s="11" t="s">
+      <c r="J74" s="12" t="s">
         <v>189</v>
       </c>
-      <c r="K74" s="11" t="s">
+      <c r="K74" s="12" t="s">
         <v>190</v>
       </c>
-      <c r="L74" s="11" t="s">
+      <c r="L74" s="12" t="s">
         <v>19</v>
       </c>
     </row>
@@ -7383,7 +7392,7 @@
       <c r="D75" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="E75" s="17" t="s">
+      <c r="E75" s="18" t="s">
         <v>191</v>
       </c>
       <c r="J75" s="10" t="s">
@@ -7395,180 +7404,180 @@
       <c r="L75" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="M75" s="18"/>
+      <c r="M75" s="19"/>
     </row>
     <row r="76" spans="1:13">
-      <c r="A76" s="11">
+      <c r="A76" s="12">
         <v>3</v>
       </c>
-      <c r="B76" s="11" t="s">
+      <c r="B76" s="12" t="s">
         <v>188</v>
       </c>
-      <c r="C76" s="11" t="s">
+      <c r="C76" s="12" t="s">
         <v>193</v>
       </c>
-      <c r="D76" s="11" t="s">
+      <c r="D76" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="E76" s="16">
+      <c r="E76" s="17">
         <v>40</v>
       </c>
-      <c r="J76" s="11" t="s">
+      <c r="J76" s="12" t="s">
         <v>194</v>
       </c>
-      <c r="K76" s="11" t="s">
+      <c r="K76" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="L76" s="11" t="s">
+      <c r="L76" s="12" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="77" spans="1:13">
-      <c r="A77" s="11">
+      <c r="A77" s="12">
         <v>4</v>
       </c>
-      <c r="B77" s="11" t="s">
+      <c r="B77" s="12" t="s">
         <v>188</v>
       </c>
-      <c r="C77" s="11" t="s">
+      <c r="C77" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="D77" s="11" t="s">
+      <c r="D77" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="E77" s="15" t="s">
+      <c r="E77" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="J77" s="11" t="s">
+      <c r="J77" s="12" t="s">
         <v>195</v>
       </c>
-      <c r="K77" s="11" t="s">
+      <c r="K77" s="12" t="s">
         <v>196</v>
       </c>
-      <c r="L77" s="15" t="s">
+      <c r="L77" s="16" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="78" spans="1:13">
-      <c r="A78" s="11">
+      <c r="A78" s="12">
         <v>5</v>
       </c>
-      <c r="B78" s="11" t="s">
+      <c r="B78" s="12" t="s">
         <v>188</v>
       </c>
-      <c r="C78" s="11" t="s">
+      <c r="C78" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="D78" s="11" t="s">
+      <c r="D78" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="E78" s="15" t="s">
+      <c r="E78" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="J78" s="11" t="s">
+      <c r="J78" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="K78" s="11" t="s">
+      <c r="K78" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="L78" s="15" t="s">
+      <c r="L78" s="16" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="79" spans="1:13">
-      <c r="A79" s="11">
+      <c r="A79" s="12">
         <v>6</v>
       </c>
-      <c r="B79" s="11" t="s">
+      <c r="B79" s="12" t="s">
         <v>188</v>
       </c>
-      <c r="C79" s="11" t="s">
+      <c r="C79" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="D79" s="11" t="s">
+      <c r="D79" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="E79" s="15" t="s">
+      <c r="E79" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="J79" s="11" t="s">
+      <c r="J79" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="K79" s="11" t="s">
+      <c r="K79" s="12" t="s">
         <v>172</v>
       </c>
-      <c r="L79" s="11" t="s">
+      <c r="L79" s="12" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="80" spans="1:13">
-      <c r="A80" s="11">
+      <c r="A80" s="12">
         <v>7</v>
       </c>
-      <c r="B80" s="11" t="s">
+      <c r="B80" s="12" t="s">
         <v>188</v>
       </c>
-      <c r="E80" s="13"/>
-      <c r="J80" s="11" t="s">
+      <c r="E80" s="14"/>
+      <c r="J80" s="12" t="s">
         <v>198</v>
       </c>
-      <c r="K80" s="11" t="s">
+      <c r="K80" s="12" t="s">
         <v>131</v>
       </c>
-      <c r="L80" s="11" t="s">
+      <c r="L80" s="12" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="81" spans="1:13">
-      <c r="A81" s="11">
+      <c r="A81" s="12">
         <v>8</v>
       </c>
-      <c r="B81" s="11" t="s">
+      <c r="B81" s="12" t="s">
         <v>188</v>
       </c>
-      <c r="E81" s="13"/>
-      <c r="J81" s="11" t="s">
+      <c r="E81" s="14"/>
+      <c r="J81" s="12" t="s">
         <v>199</v>
       </c>
-      <c r="K81" s="11" t="s">
+      <c r="K81" s="12" t="s">
         <v>134</v>
       </c>
-      <c r="L81" s="11" t="s">
+      <c r="L81" s="12" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="82" spans="1:13">
-      <c r="A82" s="11">
+      <c r="A82" s="12">
         <v>1</v>
       </c>
-      <c r="B82" s="11" t="s">
+      <c r="B82" s="12" t="s">
         <v>200</v>
       </c>
-      <c r="D82" s="11" t="s">
+      <c r="D82" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="E82" s="15" t="s">
+      <c r="E82" s="16" t="s">
         <v>201</v>
       </c>
-      <c r="F82" s="11" t="s">
+      <c r="F82" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="G82" s="11">
+      <c r="G82" s="12">
         <v>73</v>
       </c>
-      <c r="H82" s="11">
+      <c r="H82" s="12">
         <v>3</v>
       </c>
-      <c r="I82" s="11">
+      <c r="I82" s="12">
         <v>300</v>
       </c>
-      <c r="J82" s="11" t="s">
+      <c r="J82" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="K82" s="11" t="s">
+      <c r="K82" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="L82" s="15" t="s">
+      <c r="L82" s="16" t="s">
         <v>100</v>
       </c>
     </row>
@@ -7585,7 +7594,7 @@
       <c r="D83" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="E83" s="17" t="s">
+      <c r="E83" s="18" t="s">
         <v>203</v>
       </c>
       <c r="J83" s="10" t="s">
@@ -7594,1146 +7603,1146 @@
       <c r="K83" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="L83" s="17" t="s">
+      <c r="L83" s="18" t="s">
         <v>100</v>
       </c>
-      <c r="M83" s="18"/>
+      <c r="M83" s="19"/>
     </row>
     <row r="84" spans="1:13">
-      <c r="A84" s="11">
+      <c r="A84" s="12">
         <v>3</v>
       </c>
-      <c r="B84" s="11" t="s">
+      <c r="B84" s="12" t="s">
         <v>200</v>
       </c>
-      <c r="C84" s="11" t="s">
+      <c r="C84" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="D84" s="11" t="s">
+      <c r="D84" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="E84" s="15" t="s">
+      <c r="E84" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="J84" s="11" t="s">
+      <c r="J84" s="12" t="s">
         <v>204</v>
       </c>
-      <c r="K84" s="11" t="s">
+      <c r="K84" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="L84" s="11" t="s">
+      <c r="L84" s="12" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="85" spans="1:13">
-      <c r="A85" s="11">
+      <c r="A85" s="12">
         <v>4</v>
       </c>
-      <c r="B85" s="11" t="s">
+      <c r="B85" s="12" t="s">
         <v>200</v>
       </c>
-      <c r="C85" s="11" t="s">
+      <c r="C85" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="D85" s="11" t="s">
+      <c r="D85" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="E85" s="15" t="s">
+      <c r="E85" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="J85" s="11" t="s">
+      <c r="J85" s="12" t="s">
         <v>205</v>
       </c>
-      <c r="K85" s="11" t="s">
+      <c r="K85" s="12" t="s">
         <v>206</v>
       </c>
-      <c r="L85" s="15" t="s">
+      <c r="L85" s="16" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="86" spans="1:13">
-      <c r="A86" s="11">
+      <c r="A86" s="12">
         <v>5</v>
       </c>
-      <c r="B86" s="11" t="s">
+      <c r="B86" s="12" t="s">
         <v>200</v>
       </c>
-      <c r="D86" s="11" t="s">
+      <c r="D86" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="E86" s="16">
+      <c r="E86" s="17">
         <v>10</v>
       </c>
-      <c r="J86" s="11" t="s">
+      <c r="J86" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="K86" s="11" t="s">
+      <c r="K86" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="L86" s="15" t="s">
+      <c r="L86" s="16" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="87" spans="1:13">
-      <c r="A87" s="11">
+      <c r="A87" s="12">
         <v>6</v>
       </c>
-      <c r="B87" s="11" t="s">
+      <c r="B87" s="12" t="s">
         <v>200</v>
       </c>
-      <c r="E87" s="13"/>
-      <c r="J87" s="11" t="s">
+      <c r="E87" s="14"/>
+      <c r="J87" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="K87" s="11" t="s">
+      <c r="K87" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="L87" s="11" t="s">
+      <c r="L87" s="12" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="88" spans="1:13">
-      <c r="A88" s="11">
+      <c r="A88" s="12">
         <v>7</v>
       </c>
-      <c r="B88" s="11" t="s">
+      <c r="B88" s="12" t="s">
         <v>200</v>
       </c>
-      <c r="E88" s="13"/>
-      <c r="J88" s="11" t="s">
+      <c r="E88" s="14"/>
+      <c r="J88" s="12" t="s">
         <v>208</v>
       </c>
-      <c r="K88" s="11" t="s">
+      <c r="K88" s="12" t="s">
         <v>131</v>
       </c>
-      <c r="L88" s="11" t="s">
+      <c r="L88" s="12" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="89" spans="1:13">
-      <c r="A89" s="11">
+      <c r="A89" s="12">
         <v>8</v>
       </c>
-      <c r="B89" s="11" t="s">
+      <c r="B89" s="12" t="s">
         <v>200</v>
       </c>
-      <c r="E89" s="13"/>
-      <c r="J89" s="11" t="s">
+      <c r="E89" s="14"/>
+      <c r="J89" s="12" t="s">
         <v>209</v>
       </c>
-      <c r="K89" s="11" t="s">
+      <c r="K89" s="12" t="s">
         <v>134</v>
       </c>
-      <c r="L89" s="15" t="s">
+      <c r="L89" s="16" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="90" spans="1:13">
-      <c r="A90" s="11">
+      <c r="A90" s="12">
         <v>1</v>
       </c>
-      <c r="B90" s="11" t="s">
+      <c r="B90" s="12" t="s">
         <v>210</v>
       </c>
-      <c r="D90" s="11" t="s">
+      <c r="D90" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="E90" s="15" t="s">
+      <c r="E90" s="16" t="s">
         <v>137</v>
       </c>
-      <c r="F90" s="11" t="s">
+      <c r="F90" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="G90" s="11">
+      <c r="G90" s="12">
         <v>68</v>
       </c>
-      <c r="H90" s="11">
+      <c r="H90" s="12">
         <v>3</v>
       </c>
-      <c r="I90" s="11">
+      <c r="I90" s="12">
         <v>400</v>
       </c>
-      <c r="J90" s="11" t="s">
+      <c r="J90" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="K90" s="11" t="s">
+      <c r="K90" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="L90" s="15" t="s">
+      <c r="L90" s="16" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="91" spans="1:13">
-      <c r="A91" s="11">
+      <c r="A91" s="12">
         <v>2</v>
       </c>
-      <c r="B91" s="11" t="s">
+      <c r="B91" s="12" t="s">
         <v>210</v>
       </c>
-      <c r="C91" s="11" t="s">
+      <c r="C91" s="12" t="s">
         <v>211</v>
       </c>
-      <c r="D91" s="11" t="s">
+      <c r="D91" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="E91" s="15" t="s">
+      <c r="E91" s="16" t="s">
         <v>212</v>
       </c>
-      <c r="J91" s="11" t="s">
+      <c r="J91" s="12" t="s">
         <v>213</v>
       </c>
-      <c r="K91" s="11" t="s">
+      <c r="K91" s="12" t="s">
         <v>214</v>
       </c>
-      <c r="L91" s="11" t="s">
+      <c r="L91" s="12" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="92" spans="1:13">
-      <c r="A92" s="11">
+      <c r="A92" s="12">
         <v>3</v>
       </c>
-      <c r="B92" s="11" t="s">
+      <c r="B92" s="12" t="s">
         <v>210</v>
       </c>
-      <c r="C92" s="11" t="s">
+      <c r="C92" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="D92" s="11" t="s">
+      <c r="D92" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="E92" s="15" t="s">
+      <c r="E92" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="J92" s="11" t="s">
+      <c r="J92" s="12" t="s">
         <v>216</v>
       </c>
-      <c r="K92" s="11" t="s">
+      <c r="K92" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="L92" s="11" t="s">
+      <c r="L92" s="12" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="93" spans="1:13">
-      <c r="A93" s="11">
+      <c r="A93" s="12">
         <v>4</v>
       </c>
-      <c r="B93" s="11" t="s">
+      <c r="B93" s="12" t="s">
         <v>210</v>
       </c>
-      <c r="C93" s="11" t="s">
+      <c r="C93" s="12" t="s">
         <v>217</v>
       </c>
-      <c r="D93" s="11" t="s">
+      <c r="D93" s="12" t="s">
         <v>218</v>
       </c>
-      <c r="E93" s="15" t="s">
+      <c r="E93" s="16" t="s">
         <v>219</v>
       </c>
-      <c r="J93" s="11" t="s">
+      <c r="J93" s="12" t="s">
         <v>159</v>
       </c>
-      <c r="K93" s="11" t="s">
+      <c r="K93" s="12" t="s">
         <v>160</v>
       </c>
-      <c r="L93" s="15" t="s">
+      <c r="L93" s="16" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="94" spans="1:13">
-      <c r="A94" s="11">
+      <c r="A94" s="12">
         <v>5</v>
       </c>
-      <c r="B94" s="11" t="s">
+      <c r="B94" s="12" t="s">
         <v>210</v>
       </c>
-      <c r="D94" s="11" t="s">
+      <c r="D94" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="E94" s="16">
+      <c r="E94" s="17">
         <v>10</v>
       </c>
-      <c r="J94" s="11" t="s">
+      <c r="J94" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="K94" s="11" t="s">
+      <c r="K94" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="L94" s="11" t="s">
+      <c r="L94" s="12" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="95" spans="1:13">
-      <c r="A95" s="11">
+      <c r="A95" s="12">
         <v>6</v>
       </c>
-      <c r="B95" s="11" t="s">
+      <c r="B95" s="12" t="s">
         <v>210</v>
       </c>
-      <c r="E95" s="13"/>
-      <c r="J95" s="11" t="s">
+      <c r="E95" s="14"/>
+      <c r="J95" s="12" t="s">
         <v>220</v>
       </c>
-      <c r="K95" s="11" t="s">
+      <c r="K95" s="12" t="s">
         <v>221</v>
       </c>
-      <c r="L95" s="11" t="s">
+      <c r="L95" s="12" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="96" spans="1:13">
-      <c r="A96" s="11">
+      <c r="A96" s="12">
         <v>7</v>
       </c>
-      <c r="B96" s="11" t="s">
+      <c r="B96" s="12" t="s">
         <v>210</v>
       </c>
-      <c r="E96" s="13"/>
-      <c r="J96" s="11" t="s">
+      <c r="E96" s="14"/>
+      <c r="J96" s="12" t="s">
         <v>222</v>
       </c>
-      <c r="K96" s="11" t="s">
+      <c r="K96" s="12" t="s">
         <v>223</v>
       </c>
-      <c r="L96" s="11" t="s">
+      <c r="L96" s="12" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="97" spans="1:13">
-      <c r="A97" s="11">
+      <c r="A97" s="12">
         <v>8</v>
       </c>
-      <c r="B97" s="11" t="s">
+      <c r="B97" s="12" t="s">
         <v>210</v>
       </c>
-      <c r="E97" s="13"/>
-      <c r="J97" s="11" t="s">
+      <c r="E97" s="14"/>
+      <c r="J97" s="12" t="s">
         <v>225</v>
       </c>
-      <c r="K97" s="11" t="s">
+      <c r="K97" s="12" t="s">
         <v>226</v>
       </c>
-      <c r="L97" s="11" t="s">
+      <c r="L97" s="12" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="98" spans="1:13">
-      <c r="A98" s="11">
+      <c r="A98" s="12">
         <v>1</v>
       </c>
-      <c r="B98" s="11" t="s">
+      <c r="B98" s="12" t="s">
         <v>228</v>
       </c>
-      <c r="D98" s="11" t="s">
+      <c r="D98" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="E98" s="15" t="s">
+      <c r="E98" s="16" t="s">
         <v>229</v>
       </c>
-      <c r="F98" s="11" t="s">
+      <c r="F98" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="G98" s="11">
+      <c r="G98" s="12">
         <v>64</v>
       </c>
-      <c r="H98" s="11">
+      <c r="H98" s="12">
         <v>4</v>
       </c>
-      <c r="I98" s="11">
+      <c r="I98" s="12">
         <v>200</v>
       </c>
-      <c r="J98" s="11" t="s">
+      <c r="J98" s="12" t="s">
         <v>213</v>
       </c>
-      <c r="K98" s="11" t="s">
+      <c r="K98" s="12" t="s">
         <v>214</v>
       </c>
-      <c r="L98" s="11" t="s">
+      <c r="L98" s="12" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="99" s="10" customFormat="1" spans="1:13">
-      <c r="A99" s="10">
+    <row r="99" s="11" customFormat="1" spans="1:13">
+      <c r="A99" s="11">
         <v>2</v>
       </c>
-      <c r="B99" s="10" t="s">
+      <c r="B99" s="11" t="s">
         <v>228</v>
       </c>
-      <c r="C99" s="10" t="s">
+      <c r="C99" s="11" t="s">
         <v>230</v>
       </c>
-      <c r="D99" s="10" t="s">
+      <c r="D99" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="E99" s="17" t="s">
+      <c r="E99" s="20" t="s">
         <v>231</v>
       </c>
-      <c r="J99" s="10" t="s">
+      <c r="J99" s="11" t="s">
         <v>213</v>
       </c>
-      <c r="K99" s="10" t="s">
+      <c r="K99" s="11" t="s">
         <v>214</v>
       </c>
-      <c r="L99" s="10" t="s">
+      <c r="L99" s="11" t="s">
         <v>215</v>
       </c>
-      <c r="M99" s="18"/>
+      <c r="M99" s="21"/>
     </row>
     <row r="100" spans="1:13">
-      <c r="A100" s="11">
+      <c r="A100" s="12">
         <v>3</v>
       </c>
-      <c r="B100" s="11" t="s">
+      <c r="B100" s="12" t="s">
         <v>228</v>
       </c>
-      <c r="C100" s="11" t="s">
+      <c r="C100" s="12" t="s">
         <v>232</v>
       </c>
-      <c r="D100" s="11" t="s">
+      <c r="D100" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="E100" s="15" t="s">
+      <c r="E100" s="16" t="s">
         <v>233</v>
       </c>
-      <c r="J100" s="11" t="s">
+      <c r="J100" s="12" t="s">
         <v>234</v>
       </c>
-      <c r="K100" s="11" t="s">
+      <c r="K100" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="L100" s="11" t="s">
+      <c r="L100" s="12" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="101" spans="1:13">
-      <c r="A101" s="11">
+      <c r="A101" s="12">
         <v>4</v>
       </c>
-      <c r="B101" s="11" t="s">
+      <c r="B101" s="12" t="s">
         <v>228</v>
       </c>
-      <c r="C101" s="11" t="s">
+      <c r="C101" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="D101" s="11" t="s">
+      <c r="D101" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="E101" s="15" t="s">
+      <c r="E101" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="J101" s="11" t="s">
+      <c r="J101" s="12" t="s">
         <v>235</v>
       </c>
-      <c r="K101" s="11" t="s">
+      <c r="K101" s="12" t="s">
         <v>236</v>
       </c>
-      <c r="L101" s="15" t="s">
+      <c r="L101" s="16" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="102" spans="1:13">
-      <c r="A102" s="11">
+      <c r="A102" s="12">
         <v>5</v>
       </c>
-      <c r="B102" s="11" t="s">
+      <c r="B102" s="12" t="s">
         <v>228</v>
       </c>
-      <c r="C102" s="11" t="s">
+      <c r="C102" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="D102" s="11" t="s">
+      <c r="D102" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="E102" s="15" t="s">
+      <c r="E102" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="J102" s="11" t="s">
+      <c r="J102" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="K102" s="11" t="s">
+      <c r="K102" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="L102" s="11" t="s">
+      <c r="L102" s="12" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="103" spans="1:13">
-      <c r="A103" s="11">
+      <c r="A103" s="12">
         <v>6</v>
       </c>
-      <c r="B103" s="11" t="s">
+      <c r="B103" s="12" t="s">
         <v>228</v>
       </c>
-      <c r="E103" s="13"/>
-      <c r="J103" s="11" t="s">
+      <c r="E103" s="14"/>
+      <c r="J103" s="12" t="s">
         <v>220</v>
       </c>
-      <c r="K103" s="11" t="s">
+      <c r="K103" s="12" t="s">
         <v>221</v>
       </c>
-      <c r="L103" s="11" t="s">
+      <c r="L103" s="12" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="104" spans="1:13">
-      <c r="A104" s="11">
+      <c r="A104" s="12">
         <v>7</v>
       </c>
-      <c r="B104" s="11" t="s">
+      <c r="B104" s="12" t="s">
         <v>228</v>
       </c>
-      <c r="E104" s="13"/>
-      <c r="J104" s="11" t="s">
+      <c r="E104" s="14"/>
+      <c r="J104" s="12" t="s">
         <v>238</v>
       </c>
-      <c r="K104" s="11" t="s">
+      <c r="K104" s="12" t="s">
         <v>239</v>
       </c>
-      <c r="L104" s="11" t="s">
+      <c r="L104" s="12" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="105" spans="1:13">
-      <c r="A105" s="11">
+      <c r="A105" s="12">
         <v>8</v>
       </c>
-      <c r="B105" s="11" t="s">
+      <c r="B105" s="12" t="s">
         <v>228</v>
       </c>
-      <c r="E105" s="13"/>
-      <c r="J105" s="11" t="s">
+      <c r="E105" s="14"/>
+      <c r="J105" s="12" t="s">
         <v>241</v>
       </c>
-      <c r="K105" s="11" t="s">
+      <c r="K105" s="12" t="s">
         <v>242</v>
       </c>
-      <c r="L105" s="11" t="s">
+      <c r="L105" s="12" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="106" spans="1:13">
-      <c r="A106" s="11">
+      <c r="A106" s="12">
         <v>1</v>
       </c>
-      <c r="B106" s="11" t="s">
+      <c r="B106" s="12" t="s">
         <v>244</v>
       </c>
-      <c r="D106" s="11" t="s">
+      <c r="D106" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="E106" s="15" t="s">
+      <c r="E106" s="16" t="s">
         <v>229</v>
       </c>
-      <c r="F106" s="11" t="s">
+      <c r="F106" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="G106" s="11">
+      <c r="G106" s="12">
         <v>64</v>
       </c>
-      <c r="H106" s="11">
+      <c r="H106" s="12">
         <v>4</v>
       </c>
-      <c r="I106" s="11">
+      <c r="I106" s="12">
         <v>200</v>
       </c>
-      <c r="J106" s="11" t="s">
+      <c r="J106" s="12" t="s">
         <v>213</v>
       </c>
-      <c r="K106" s="11" t="s">
+      <c r="K106" s="12" t="s">
         <v>214</v>
       </c>
-      <c r="L106" s="11" t="s">
+      <c r="L106" s="12" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="107" s="10" customFormat="1" ht="11" customHeight="1" spans="1:13">
-      <c r="A107" s="10">
+    <row r="107" s="11" customFormat="1" ht="11" customHeight="1" spans="1:13">
+      <c r="A107" s="11">
         <v>2</v>
       </c>
-      <c r="B107" s="10" t="s">
+      <c r="B107" s="11" t="s">
         <v>244</v>
       </c>
-      <c r="C107" s="10" t="s">
+      <c r="C107" s="11" t="s">
         <v>245</v>
       </c>
-      <c r="D107" s="10" t="s">
+      <c r="D107" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="E107" s="17" t="s">
+      <c r="E107" s="20" t="s">
         <v>246</v>
       </c>
-      <c r="J107" s="10" t="s">
+      <c r="J107" s="11" t="s">
         <v>213</v>
       </c>
-      <c r="K107" s="10" t="s">
+      <c r="K107" s="11" t="s">
         <v>214</v>
       </c>
-      <c r="L107" s="10" t="s">
+      <c r="L107" s="11" t="s">
         <v>215</v>
       </c>
-      <c r="M107" s="18"/>
+      <c r="M107" s="21"/>
     </row>
     <row r="108" spans="1:13">
-      <c r="A108" s="11">
+      <c r="A108" s="12">
         <v>3</v>
       </c>
-      <c r="B108" s="11" t="s">
+      <c r="B108" s="12" t="s">
         <v>244</v>
       </c>
-      <c r="C108" s="11" t="s">
+      <c r="C108" s="12" t="s">
         <v>232</v>
       </c>
-      <c r="D108" s="11" t="s">
+      <c r="D108" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="E108" s="15" t="s">
+      <c r="E108" s="16" t="s">
         <v>233</v>
       </c>
-      <c r="J108" s="11" t="s">
+      <c r="J108" s="12" t="s">
         <v>247</v>
       </c>
-      <c r="K108" s="11" t="s">
+      <c r="K108" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="L108" s="11" t="s">
+      <c r="L108" s="12" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="109" spans="1:13">
-      <c r="A109" s="11">
+      <c r="A109" s="12">
         <v>4</v>
       </c>
-      <c r="B109" s="11" t="s">
+      <c r="B109" s="12" t="s">
         <v>244</v>
       </c>
-      <c r="C109" s="11" t="s">
+      <c r="C109" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="D109" s="11" t="s">
+      <c r="D109" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="E109" s="15" t="s">
+      <c r="E109" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="J109" s="11" t="s">
+      <c r="J109" s="12" t="s">
         <v>235</v>
       </c>
-      <c r="K109" s="11" t="s">
+      <c r="K109" s="12" t="s">
         <v>236</v>
       </c>
-      <c r="L109" s="15" t="s">
+      <c r="L109" s="16" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="110" spans="1:13">
-      <c r="A110" s="11">
+      <c r="A110" s="12">
         <v>5</v>
       </c>
-      <c r="B110" s="11" t="s">
+      <c r="B110" s="12" t="s">
         <v>244</v>
       </c>
-      <c r="C110" s="11" t="s">
+      <c r="C110" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="D110" s="11" t="s">
+      <c r="D110" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="E110" s="15" t="s">
+      <c r="E110" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="J110" s="11" t="s">
+      <c r="J110" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="K110" s="11" t="s">
+      <c r="K110" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="L110" s="15" t="s">
+      <c r="L110" s="16" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="111" spans="1:13">
-      <c r="A111" s="11">
+      <c r="A111" s="12">
         <v>6</v>
       </c>
-      <c r="B111" s="11" t="s">
+      <c r="B111" s="12" t="s">
         <v>244</v>
       </c>
-      <c r="E111" s="13"/>
-      <c r="J111" s="11" t="s">
+      <c r="E111" s="14"/>
+      <c r="J111" s="12" t="s">
         <v>220</v>
       </c>
-      <c r="K111" s="11" t="s">
+      <c r="K111" s="12" t="s">
         <v>221</v>
       </c>
-      <c r="L111" s="11" t="s">
+      <c r="L111" s="12" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="112" spans="1:13">
-      <c r="A112" s="11">
+      <c r="A112" s="12">
         <v>7</v>
       </c>
-      <c r="B112" s="11" t="s">
+      <c r="B112" s="12" t="s">
         <v>244</v>
       </c>
-      <c r="E112" s="13"/>
-      <c r="J112" s="11" t="s">
+      <c r="E112" s="14"/>
+      <c r="J112" s="12" t="s">
         <v>249</v>
       </c>
-      <c r="K112" s="11" t="s">
+      <c r="K112" s="12" t="s">
         <v>239</v>
       </c>
-      <c r="L112" s="11" t="s">
+      <c r="L112" s="12" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="113" spans="1:12">
-      <c r="A113" s="11">
+      <c r="A113" s="12">
         <v>8</v>
       </c>
-      <c r="B113" s="11" t="s">
+      <c r="B113" s="12" t="s">
         <v>244</v>
       </c>
-      <c r="E113" s="13"/>
-      <c r="J113" s="11" t="s">
+      <c r="E113" s="14"/>
+      <c r="J113" s="12" t="s">
         <v>250</v>
       </c>
-      <c r="K113" s="11" t="s">
+      <c r="K113" s="12" t="s">
         <v>242</v>
       </c>
-      <c r="L113" s="11" t="s">
+      <c r="L113" s="12" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="114" spans="1:12">
-      <c r="A114" s="11">
+      <c r="A114" s="12">
         <v>1</v>
       </c>
-      <c r="B114" s="11" t="s">
+      <c r="B114" s="12" t="s">
         <v>251</v>
       </c>
-      <c r="D114" s="11" t="s">
+      <c r="D114" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="E114" s="15" t="s">
+      <c r="E114" s="16" t="s">
         <v>252</v>
       </c>
-      <c r="F114" s="11" t="s">
+      <c r="F114" s="12" t="s">
         <v>253</v>
       </c>
-      <c r="G114" s="11">
+      <c r="G114" s="12">
         <v>68</v>
       </c>
-      <c r="H114" s="11">
+      <c r="H114" s="12">
         <v>4</v>
       </c>
-      <c r="I114" s="11">
+      <c r="I114" s="12">
         <v>200</v>
       </c>
-      <c r="J114" s="11" t="s">
+      <c r="J114" s="12" t="s">
         <v>254</v>
       </c>
-      <c r="K114" s="11" t="s">
+      <c r="K114" s="12" t="s">
         <v>255</v>
       </c>
-      <c r="L114" s="11" t="s">
+      <c r="L114" s="12" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="115" spans="1:12">
-      <c r="A115" s="11">
+      <c r="A115" s="12">
         <v>2</v>
       </c>
-      <c r="B115" s="11" t="s">
+      <c r="B115" s="12" t="s">
         <v>251</v>
       </c>
-      <c r="C115" s="11" t="s">
+      <c r="C115" s="12" t="s">
         <v>256</v>
       </c>
-      <c r="D115" s="11" t="s">
+      <c r="D115" s="12" t="s">
         <v>181</v>
       </c>
-      <c r="E115" s="15" t="s">
+      <c r="E115" s="16" t="s">
         <v>257</v>
       </c>
-      <c r="J115" s="11" t="s">
+      <c r="J115" s="12" t="s">
         <v>258</v>
       </c>
-      <c r="K115" s="11" t="s">
+      <c r="K115" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="L115" s="11" t="s">
+      <c r="L115" s="12" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="116" spans="1:12">
-      <c r="A116" s="11">
+      <c r="A116" s="12">
         <v>3</v>
       </c>
-      <c r="B116" s="11" t="s">
+      <c r="B116" s="12" t="s">
         <v>251</v>
       </c>
-      <c r="C116" s="11" t="s">
+      <c r="C116" s="12" t="s">
         <v>259</v>
       </c>
-      <c r="D116" s="11" t="s">
+      <c r="D116" s="12" t="s">
         <v>260</v>
       </c>
-      <c r="E116" s="15" t="s">
+      <c r="E116" s="16" t="s">
         <v>261</v>
       </c>
-      <c r="J116" s="11" t="s">
+      <c r="J116" s="12" t="s">
         <v>262</v>
       </c>
-      <c r="K116" s="11" t="s">
+      <c r="K116" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="L116" s="11" t="s">
+      <c r="L116" s="12" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="117" spans="1:12">
-      <c r="A117" s="11">
+      <c r="A117" s="12">
         <v>4</v>
       </c>
-      <c r="B117" s="11" t="s">
+      <c r="B117" s="12" t="s">
         <v>251</v>
       </c>
-      <c r="C117" s="11" t="s">
+      <c r="C117" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="D117" s="11" t="s">
+      <c r="D117" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="E117" s="15" t="s">
+      <c r="E117" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="J117" s="11" t="s">
+      <c r="J117" s="12" t="s">
         <v>263</v>
       </c>
-      <c r="K117" s="11" t="s">
+      <c r="K117" s="12" t="s">
         <v>264</v>
       </c>
-      <c r="L117" s="15" t="s">
+      <c r="L117" s="16" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="118" spans="1:12">
-      <c r="A118" s="11">
+      <c r="A118" s="12">
         <v>5</v>
       </c>
-      <c r="B118" s="11" t="s">
+      <c r="B118" s="12" t="s">
         <v>251</v>
       </c>
-      <c r="C118" s="11" t="s">
+      <c r="C118" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="D118" s="11" t="s">
+      <c r="D118" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="E118" s="15" t="s">
+      <c r="E118" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="J118" s="11" t="s">
+      <c r="J118" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="K118" s="11" t="s">
+      <c r="K118" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="L118" s="15" t="s">
+      <c r="L118" s="16" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="119" spans="1:12">
-      <c r="A119" s="11">
+      <c r="A119" s="12">
         <v>6</v>
       </c>
-      <c r="B119" s="11" t="s">
+      <c r="B119" s="12" t="s">
         <v>251</v>
       </c>
-      <c r="D119" s="11" t="s">
+      <c r="D119" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="E119" s="16">
+      <c r="E119" s="17">
         <v>20</v>
       </c>
-      <c r="J119" s="11" t="s">
+      <c r="J119" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="K119" s="11" t="s">
+      <c r="K119" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="L119" s="11" t="s">
+      <c r="L119" s="12" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="120" spans="1:12">
-      <c r="A120" s="11">
+      <c r="A120" s="12">
         <v>7</v>
       </c>
-      <c r="B120" s="11" t="s">
+      <c r="B120" s="12" t="s">
         <v>251</v>
       </c>
-      <c r="E120" s="13"/>
-      <c r="J120" s="11" t="s">
+      <c r="E120" s="14"/>
+      <c r="J120" s="12" t="s">
         <v>266</v>
       </c>
-      <c r="K120" s="11" t="s">
+      <c r="K120" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="L120" s="11" t="s">
+      <c r="L120" s="12" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="121" spans="1:12">
-      <c r="A121" s="11">
+      <c r="A121" s="12">
         <v>8</v>
       </c>
-      <c r="B121" s="11" t="s">
+      <c r="B121" s="12" t="s">
         <v>251</v>
       </c>
-      <c r="E121" s="13"/>
-      <c r="J121" s="11" t="s">
+      <c r="E121" s="14"/>
+      <c r="J121" s="12" t="s">
         <v>267</v>
       </c>
-      <c r="K121" s="11" t="s">
+      <c r="K121" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="L121" s="11" t="s">
+      <c r="L121" s="12" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="122" spans="1:12">
-      <c r="A122" s="11">
+      <c r="A122" s="12">
         <v>1</v>
       </c>
-      <c r="B122" s="11" t="s">
+      <c r="B122" s="12" t="s">
         <v>268</v>
       </c>
-      <c r="D122" s="11" t="s">
+      <c r="D122" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="E122" s="15" t="s">
+      <c r="E122" s="16" t="s">
         <v>269</v>
       </c>
-      <c r="F122" s="11" t="s">
+      <c r="F122" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="G122" s="11">
+      <c r="G122" s="12">
         <v>70</v>
       </c>
-      <c r="H122" s="11">
+      <c r="H122" s="12">
         <v>4</v>
       </c>
-      <c r="I122" s="11">
+      <c r="I122" s="12">
         <v>200</v>
       </c>
-      <c r="J122" s="11" t="s">
+      <c r="J122" s="12" t="s">
         <v>270</v>
       </c>
-      <c r="K122" s="11" t="s">
+      <c r="K122" s="12" t="s">
         <v>255</v>
       </c>
-      <c r="L122" s="11" t="s">
+      <c r="L122" s="12" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="123" spans="1:12">
-      <c r="A123" s="11">
+      <c r="A123" s="12">
         <v>2</v>
       </c>
-      <c r="B123" s="11" t="s">
+      <c r="B123" s="12" t="s">
         <v>268</v>
       </c>
-      <c r="C123" s="11" t="s">
+      <c r="C123" s="12" t="s">
         <v>271</v>
       </c>
-      <c r="D123" s="11" t="s">
+      <c r="D123" s="12" t="s">
         <v>272</v>
       </c>
-      <c r="E123" s="15" t="s">
+      <c r="E123" s="16" t="s">
         <v>273</v>
       </c>
-      <c r="J123" s="11" t="s">
+      <c r="J123" s="12" t="s">
         <v>274</v>
       </c>
-      <c r="K123" s="11" t="s">
+      <c r="K123" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="L123" s="11" t="s">
+      <c r="L123" s="12" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="124" spans="1:12">
-      <c r="A124" s="11">
+      <c r="A124" s="12">
         <v>3</v>
       </c>
-      <c r="B124" s="11" t="s">
+      <c r="B124" s="12" t="s">
         <v>268</v>
       </c>
-      <c r="C124" s="11" t="s">
+      <c r="C124" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="D124" s="11" t="s">
+      <c r="D124" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="E124" s="15" t="s">
+      <c r="E124" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="J124" s="11" t="s">
+      <c r="J124" s="12" t="s">
         <v>275</v>
       </c>
-      <c r="K124" s="11" t="s">
+      <c r="K124" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="L124" s="11" t="s">
+      <c r="L124" s="12" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="125" spans="1:12">
-      <c r="A125" s="11">
+      <c r="A125" s="12">
         <v>4</v>
       </c>
-      <c r="B125" s="11" t="s">
+      <c r="B125" s="12" t="s">
         <v>268</v>
       </c>
-      <c r="C125" s="11" t="s">
+      <c r="C125" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="D125" s="11" t="s">
+      <c r="D125" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="E125" s="15" t="s">
+      <c r="E125" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="J125" s="11" t="s">
+      <c r="J125" s="12" t="s">
         <v>276</v>
       </c>
-      <c r="K125" s="11" t="s">
+      <c r="K125" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="L125" s="11" t="s">
+      <c r="L125" s="12" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="126" spans="1:12">
-      <c r="A126" s="11">
+      <c r="A126" s="12">
         <v>5</v>
       </c>
-      <c r="B126" s="11" t="s">
+      <c r="B126" s="12" t="s">
         <v>268</v>
       </c>
-      <c r="C126" s="11" t="s">
+      <c r="C126" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="D126" s="11" t="s">
+      <c r="D126" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="E126" s="15" t="s">
+      <c r="E126" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="J126" s="11" t="s">
+      <c r="J126" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="K126" s="11" t="s">
+      <c r="K126" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="L126" s="15" t="s">
+      <c r="L126" s="16" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="127" spans="1:12">
-      <c r="A127" s="11">
+      <c r="A127" s="12">
         <v>6</v>
       </c>
-      <c r="B127" s="11" t="s">
+      <c r="B127" s="12" t="s">
         <v>268</v>
       </c>
-      <c r="D127" s="11" t="s">
+      <c r="D127" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="E127" s="16">
+      <c r="E127" s="17">
         <v>20</v>
       </c>
-      <c r="J127" s="11" t="s">
+      <c r="J127" s="12" t="s">
         <v>220</v>
       </c>
-      <c r="K127" s="11" t="s">
+      <c r="K127" s="12" t="s">
         <v>221</v>
       </c>
-      <c r="L127" s="11" t="s">
+      <c r="L127" s="12" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="128" spans="1:12">
-      <c r="A128" s="11">
+      <c r="A128" s="12">
         <v>7</v>
       </c>
-      <c r="B128" s="11" t="s">
+      <c r="B128" s="12" t="s">
         <v>268</v>
       </c>
-      <c r="E128" s="13"/>
-      <c r="J128" s="11" t="s">
+      <c r="E128" s="14"/>
+      <c r="J128" s="12" t="s">
         <v>277</v>
       </c>
-      <c r="K128" s="11" t="s">
+      <c r="K128" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="L128" s="11" t="s">
+      <c r="L128" s="12" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="129" spans="1:13">
-      <c r="A129" s="11">
+      <c r="A129" s="12">
         <v>8</v>
       </c>
-      <c r="B129" s="11" t="s">
+      <c r="B129" s="12" t="s">
         <v>268</v>
       </c>
-      <c r="E129" s="13"/>
-      <c r="J129" s="11" t="s">
+      <c r="E129" s="14"/>
+      <c r="J129" s="12" t="s">
         <v>278</v>
       </c>
-      <c r="K129" s="11" t="s">
+      <c r="K129" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="L129" s="11" t="s">
+      <c r="L129" s="12" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="130" spans="1:13">
-      <c r="A130" s="11">
+      <c r="A130" s="12">
         <v>1</v>
       </c>
-      <c r="B130" s="11" t="s">
+      <c r="B130" s="12" t="s">
         <v>279</v>
       </c>
-      <c r="D130" s="11" t="s">
+      <c r="D130" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="E130" s="15" t="s">
+      <c r="E130" s="16" t="s">
         <v>280</v>
       </c>
-      <c r="F130" s="11" t="s">
+      <c r="F130" s="12" t="s">
         <v>253</v>
       </c>
-      <c r="G130" s="11">
+      <c r="G130" s="12">
         <v>67</v>
       </c>
-      <c r="H130" s="11">
+      <c r="H130" s="12">
         <v>3</v>
       </c>
-      <c r="I130" s="11">
+      <c r="I130" s="12">
         <v>300</v>
       </c>
-      <c r="J130" s="11" t="s">
+      <c r="J130" s="12" t="s">
         <v>281</v>
       </c>
-      <c r="K130" s="11" t="s">
+      <c r="K130" s="12" t="s">
         <v>282</v>
       </c>
-      <c r="L130" s="11" t="s">
+      <c r="L130" s="12" t="s">
         <v>52</v>
       </c>
     </row>
@@ -8750,7 +8759,7 @@
       <c r="D131" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="E131" s="17" t="s">
+      <c r="E131" s="18" t="s">
         <v>284</v>
       </c>
       <c r="J131" s="10" t="s">
@@ -8762,375 +8771,375 @@
       <c r="L131" s="10" t="s">
         <v>287</v>
       </c>
-      <c r="M131" s="18"/>
+      <c r="M131" s="19"/>
     </row>
     <row r="132" spans="1:13">
-      <c r="A132" s="11">
+      <c r="A132" s="12">
         <v>3</v>
       </c>
-      <c r="B132" s="11" t="s">
+      <c r="B132" s="12" t="s">
         <v>279</v>
       </c>
-      <c r="C132" s="11" t="s">
+      <c r="C132" s="12" t="s">
         <v>259</v>
       </c>
-      <c r="D132" s="11" t="s">
+      <c r="D132" s="12" t="s">
         <v>260</v>
       </c>
-      <c r="E132" s="15" t="s">
+      <c r="E132" s="16" t="s">
         <v>261</v>
       </c>
-      <c r="J132" s="11" t="s">
+      <c r="J132" s="12" t="s">
         <v>288</v>
       </c>
-      <c r="K132" s="11" t="s">
+      <c r="K132" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="L132" s="11" t="s">
+      <c r="L132" s="12" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="133" spans="1:13">
-      <c r="A133" s="11">
+      <c r="A133" s="12">
         <v>4</v>
       </c>
-      <c r="B133" s="11" t="s">
+      <c r="B133" s="12" t="s">
         <v>279</v>
       </c>
-      <c r="C133" s="11" t="s">
+      <c r="C133" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="D133" s="11" t="s">
+      <c r="D133" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="E133" s="15" t="s">
+      <c r="E133" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="J133" s="11" t="s">
+      <c r="J133" s="12" t="s">
         <v>289</v>
       </c>
-      <c r="K133" s="11" t="s">
+      <c r="K133" s="12" t="s">
         <v>290</v>
       </c>
-      <c r="L133" s="15" t="s">
+      <c r="L133" s="16" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="134" spans="1:13">
-      <c r="A134" s="11">
+      <c r="A134" s="12">
         <v>5</v>
       </c>
-      <c r="B134" s="11" t="s">
+      <c r="B134" s="12" t="s">
         <v>279</v>
       </c>
-      <c r="C134" s="11" t="s">
+      <c r="C134" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="D134" s="11" t="s">
+      <c r="D134" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="E134" s="15" t="s">
+      <c r="E134" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="J134" s="11" t="s">
+      <c r="J134" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="K134" s="11" t="s">
+      <c r="K134" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="L134" s="15" t="s">
+      <c r="L134" s="16" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="135" spans="1:13">
-      <c r="A135" s="11">
+      <c r="A135" s="12">
         <v>6</v>
       </c>
-      <c r="B135" s="11" t="s">
+      <c r="B135" s="12" t="s">
         <v>279</v>
       </c>
-      <c r="D135" s="11" t="s">
+      <c r="D135" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="E135" s="16">
+      <c r="E135" s="17">
         <v>20</v>
       </c>
-      <c r="J135" s="11" t="s">
+      <c r="J135" s="12" t="s">
         <v>220</v>
       </c>
-      <c r="K135" s="11" t="s">
+      <c r="K135" s="12" t="s">
         <v>221</v>
       </c>
-      <c r="L135" s="11" t="s">
+      <c r="L135" s="12" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="136" spans="1:13">
-      <c r="A136" s="11">
+      <c r="A136" s="12">
         <v>7</v>
       </c>
-      <c r="B136" s="11" t="s">
+      <c r="B136" s="12" t="s">
         <v>279</v>
       </c>
-      <c r="E136" s="13"/>
-      <c r="J136" s="11" t="s">
+      <c r="E136" s="14"/>
+      <c r="J136" s="12" t="s">
         <v>292</v>
       </c>
-      <c r="K136" s="11" t="s">
+      <c r="K136" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="L136" s="11" t="s">
+      <c r="L136" s="12" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="137" spans="1:13">
-      <c r="A137" s="11">
+      <c r="A137" s="12">
         <v>8</v>
       </c>
-      <c r="B137" s="11" t="s">
+      <c r="B137" s="12" t="s">
         <v>279</v>
       </c>
-      <c r="E137" s="13"/>
-      <c r="J137" s="11" t="s">
+      <c r="E137" s="14"/>
+      <c r="J137" s="12" t="s">
         <v>293</v>
       </c>
-      <c r="K137" s="11" t="s">
+      <c r="K137" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="L137" s="11" t="s">
+      <c r="L137" s="12" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="138" spans="1:13">
-      <c r="A138" s="11">
+      <c r="A138" s="12">
         <v>1</v>
       </c>
-      <c r="B138" s="11" t="s">
+      <c r="B138" s="12" t="s">
         <v>294</v>
       </c>
-      <c r="D138" s="11" t="s">
+      <c r="D138" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="E138" s="15" t="s">
+      <c r="E138" s="16" t="s">
         <v>295</v>
       </c>
-      <c r="F138" s="11" t="s">
+      <c r="F138" s="12" t="s">
         <v>253</v>
       </c>
-      <c r="G138" s="11">
+      <c r="G138" s="12">
         <v>67</v>
       </c>
-      <c r="H138" s="11">
+      <c r="H138" s="12">
         <v>4</v>
       </c>
-      <c r="I138" s="11">
+      <c r="I138" s="12">
         <v>300</v>
       </c>
-      <c r="J138" s="11" t="s">
+      <c r="J138" s="12" t="s">
         <v>296</v>
       </c>
-      <c r="K138" s="11" t="s">
+      <c r="K138" s="12" t="s">
         <v>282</v>
       </c>
-      <c r="L138" s="11" t="s">
+      <c r="L138" s="12" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="139" spans="1:13">
-      <c r="A139" s="11">
+      <c r="A139" s="12">
         <v>2</v>
       </c>
-      <c r="B139" s="11" t="s">
+      <c r="B139" s="12" t="s">
         <v>294</v>
       </c>
-      <c r="C139" s="11" t="s">
+      <c r="C139" s="12" t="s">
         <v>297</v>
       </c>
-      <c r="D139" s="11" t="s">
+      <c r="D139" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="E139" s="15" t="s">
+      <c r="E139" s="16" t="s">
         <v>298</v>
       </c>
-      <c r="J139" s="11" t="s">
+      <c r="J139" s="12" t="s">
         <v>299</v>
       </c>
-      <c r="K139" s="11" t="s">
+      <c r="K139" s="12" t="s">
         <v>286</v>
       </c>
-      <c r="L139" s="11" t="s">
+      <c r="L139" s="12" t="s">
         <v>287</v>
       </c>
     </row>
     <row r="140" spans="1:13">
-      <c r="A140" s="11">
+      <c r="A140" s="12">
         <v>3</v>
       </c>
-      <c r="B140" s="11" t="s">
+      <c r="B140" s="12" t="s">
         <v>294</v>
       </c>
-      <c r="C140" s="11" t="s">
+      <c r="C140" s="12" t="s">
         <v>259</v>
       </c>
-      <c r="D140" s="11" t="s">
+      <c r="D140" s="12" t="s">
         <v>260</v>
       </c>
-      <c r="E140" s="15" t="s">
+      <c r="E140" s="16" t="s">
         <v>261</v>
       </c>
-      <c r="J140" s="11" t="s">
+      <c r="J140" s="12" t="s">
         <v>300</v>
       </c>
-      <c r="K140" s="11" t="s">
+      <c r="K140" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="L140" s="11" t="s">
+      <c r="L140" s="12" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="141" spans="1:13">
-      <c r="A141" s="11">
+      <c r="A141" s="12">
         <v>4</v>
       </c>
-      <c r="B141" s="11" t="s">
+      <c r="B141" s="12" t="s">
         <v>294</v>
       </c>
-      <c r="C141" s="11" t="s">
+      <c r="C141" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="D141" s="11" t="s">
+      <c r="D141" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="E141" s="15" t="s">
+      <c r="E141" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="J141" s="11" t="s">
+      <c r="J141" s="12" t="s">
         <v>301</v>
       </c>
-      <c r="K141" s="11" t="s">
+      <c r="K141" s="12" t="s">
         <v>302</v>
       </c>
-      <c r="L141" s="15" t="s">
+      <c r="L141" s="16" t="s">
         <v>303</v>
       </c>
     </row>
     <row r="142" spans="1:13">
-      <c r="A142" s="11">
+      <c r="A142" s="12">
         <v>5</v>
       </c>
-      <c r="B142" s="11" t="s">
+      <c r="B142" s="12" t="s">
         <v>294</v>
       </c>
-      <c r="C142" s="11" t="s">
+      <c r="C142" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="D142" s="11" t="s">
+      <c r="D142" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="E142" s="15" t="s">
+      <c r="E142" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="J142" s="11" t="s">
+      <c r="J142" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="K142" s="11" t="s">
+      <c r="K142" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="L142" s="15" t="s">
+      <c r="L142" s="16" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="143" spans="1:13">
-      <c r="A143" s="11">
+      <c r="A143" s="12">
         <v>6</v>
       </c>
-      <c r="B143" s="11" t="s">
+      <c r="B143" s="12" t="s">
         <v>294</v>
       </c>
-      <c r="D143" s="11" t="s">
+      <c r="D143" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="E143" s="16">
+      <c r="E143" s="17">
         <v>20</v>
       </c>
-      <c r="J143" s="11" t="s">
+      <c r="J143" s="12" t="s">
         <v>220</v>
       </c>
-      <c r="K143" s="11" t="s">
+      <c r="K143" s="12" t="s">
         <v>221</v>
       </c>
-      <c r="L143" s="11" t="s">
+      <c r="L143" s="12" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="144" spans="1:13">
-      <c r="A144" s="11">
+      <c r="A144" s="12">
         <v>7</v>
       </c>
-      <c r="B144" s="11" t="s">
+      <c r="B144" s="12" t="s">
         <v>294</v>
       </c>
-      <c r="E144" s="13"/>
-      <c r="J144" s="11" t="s">
+      <c r="E144" s="14"/>
+      <c r="J144" s="12" t="s">
         <v>304</v>
       </c>
-      <c r="K144" s="11" t="s">
+      <c r="K144" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="L144" s="11" t="s">
+      <c r="L144" s="12" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="145" spans="1:13">
-      <c r="A145" s="11">
+      <c r="A145" s="12">
         <v>8</v>
       </c>
-      <c r="B145" s="11" t="s">
+      <c r="B145" s="12" t="s">
         <v>294</v>
       </c>
-      <c r="E145" s="13"/>
-      <c r="J145" s="11" t="s">
+      <c r="E145" s="14"/>
+      <c r="J145" s="12" t="s">
         <v>305</v>
       </c>
-      <c r="K145" s="11" t="s">
+      <c r="K145" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="L145" s="11" t="s">
+      <c r="L145" s="12" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="146" spans="1:13">
-      <c r="A146" s="11">
+      <c r="A146" s="12">
         <v>1</v>
       </c>
-      <c r="B146" s="11" t="s">
+      <c r="B146" s="12" t="s">
         <v>306</v>
       </c>
-      <c r="D146" s="11" t="s">
+      <c r="D146" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="E146" s="15" t="s">
+      <c r="E146" s="16" t="s">
         <v>307</v>
       </c>
-      <c r="F146" s="11" t="s">
+      <c r="F146" s="12" t="s">
         <v>253</v>
       </c>
-      <c r="G146" s="11">
+      <c r="G146" s="12">
         <v>67</v>
       </c>
-      <c r="H146" s="11">
+      <c r="H146" s="12">
         <v>3</v>
       </c>
-      <c r="I146" s="11">
+      <c r="I146" s="12">
         <v>250</v>
       </c>
-      <c r="J146" s="11" t="s">
+      <c r="J146" s="12" t="s">
         <v>296</v>
       </c>
-      <c r="K146" s="11" t="s">
+      <c r="K146" s="12" t="s">
         <v>282</v>
       </c>
-      <c r="L146" s="11" t="s">
+      <c r="L146" s="12" t="s">
         <v>52</v>
       </c>
     </row>
@@ -9147,7 +9156,7 @@
       <c r="D147" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="E147" s="17" t="s">
+      <c r="E147" s="18" t="s">
         <v>309</v>
       </c>
       <c r="J147" s="10" t="s">
@@ -9159,177 +9168,177 @@
       <c r="L147" s="10" t="s">
         <v>287</v>
       </c>
-      <c r="M147" s="18"/>
+      <c r="M147" s="19"/>
     </row>
     <row r="148" spans="1:13">
-      <c r="A148" s="11">
+      <c r="A148" s="12">
         <v>3</v>
       </c>
-      <c r="B148" s="11" t="s">
+      <c r="B148" s="12" t="s">
         <v>306</v>
       </c>
-      <c r="C148" s="11" t="s">
+      <c r="C148" s="12" t="s">
         <v>259</v>
       </c>
-      <c r="D148" s="11" t="s">
+      <c r="D148" s="12" t="s">
         <v>260</v>
       </c>
-      <c r="E148" s="15" t="s">
+      <c r="E148" s="16" t="s">
         <v>261</v>
       </c>
-      <c r="J148" s="11" t="s">
+      <c r="J148" s="12" t="s">
         <v>300</v>
       </c>
-      <c r="K148" s="11" t="s">
+      <c r="K148" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="L148" s="11" t="s">
+      <c r="L148" s="12" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="149" spans="1:13">
-      <c r="A149" s="11">
+      <c r="A149" s="12">
         <v>4</v>
       </c>
-      <c r="B149" s="11" t="s">
+      <c r="B149" s="12" t="s">
         <v>306</v>
       </c>
-      <c r="C149" s="11" t="s">
+      <c r="C149" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="D149" s="11" t="s">
+      <c r="D149" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="E149" s="15" t="s">
+      <c r="E149" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="J149" s="11" t="s">
+      <c r="J149" s="12" t="s">
         <v>310</v>
       </c>
-      <c r="K149" s="11" t="s">
+      <c r="K149" s="12" t="s">
         <v>311</v>
       </c>
-      <c r="L149" s="15" t="s">
+      <c r="L149" s="16" t="s">
         <v>312</v>
       </c>
     </row>
     <row r="150" spans="1:13">
-      <c r="A150" s="11">
+      <c r="A150" s="12">
         <v>5</v>
       </c>
-      <c r="B150" s="11" t="s">
+      <c r="B150" s="12" t="s">
         <v>306</v>
       </c>
-      <c r="C150" s="11" t="s">
+      <c r="C150" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="D150" s="11" t="s">
+      <c r="D150" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="E150" s="15" t="s">
+      <c r="E150" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="J150" s="11" t="s">
+      <c r="J150" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="K150" s="11" t="s">
+      <c r="K150" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="L150" s="15" t="s">
+      <c r="L150" s="16" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="151" spans="1:13">
-      <c r="A151" s="11">
+      <c r="A151" s="12">
         <v>6</v>
       </c>
-      <c r="B151" s="11" t="s">
+      <c r="B151" s="12" t="s">
         <v>306</v>
       </c>
-      <c r="D151" s="11" t="s">
+      <c r="D151" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="E151" s="16">
+      <c r="E151" s="17">
         <v>20</v>
       </c>
-      <c r="J151" s="11" t="s">
+      <c r="J151" s="12" t="s">
         <v>220</v>
       </c>
-      <c r="K151" s="11" t="s">
+      <c r="K151" s="12" t="s">
         <v>221</v>
       </c>
-      <c r="L151" s="11" t="s">
+      <c r="L151" s="12" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="152" spans="1:13">
-      <c r="A152" s="11">
+      <c r="A152" s="12">
         <v>7</v>
       </c>
-      <c r="B152" s="11" t="s">
+      <c r="B152" s="12" t="s">
         <v>306</v>
       </c>
-      <c r="E152" s="13"/>
-      <c r="J152" s="11" t="s">
+      <c r="E152" s="14"/>
+      <c r="J152" s="12" t="s">
         <v>304</v>
       </c>
-      <c r="K152" s="11" t="s">
+      <c r="K152" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="L152" s="11" t="s">
+      <c r="L152" s="12" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="153" spans="1:13">
-      <c r="A153" s="11">
+      <c r="A153" s="12">
         <v>8</v>
       </c>
-      <c r="B153" s="11" t="s">
+      <c r="B153" s="12" t="s">
         <v>306</v>
       </c>
-      <c r="E153" s="13"/>
-      <c r="J153" s="11" t="s">
+      <c r="E153" s="14"/>
+      <c r="J153" s="12" t="s">
         <v>305</v>
       </c>
-      <c r="K153" s="11" t="s">
+      <c r="K153" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="L153" s="11" t="s">
+      <c r="L153" s="12" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="154" spans="1:13">
-      <c r="A154" s="11">
+      <c r="A154" s="12">
         <v>1</v>
       </c>
-      <c r="B154" s="11" t="s">
+      <c r="B154" s="12" t="s">
         <v>313</v>
       </c>
-      <c r="D154" s="11" t="s">
+      <c r="D154" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="E154" s="15" t="s">
+      <c r="E154" s="16" t="s">
         <v>295</v>
       </c>
-      <c r="F154" s="11" t="s">
+      <c r="F154" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="G154" s="11">
+      <c r="G154" s="12">
         <v>73</v>
       </c>
-      <c r="H154" s="11">
+      <c r="H154" s="12">
         <v>4</v>
       </c>
-      <c r="I154" s="11">
+      <c r="I154" s="12">
         <v>300</v>
       </c>
-      <c r="J154" s="11" t="s">
+      <c r="J154" s="12" t="s">
         <v>314</v>
       </c>
-      <c r="K154" s="11" t="s">
+      <c r="K154" s="12" t="s">
         <v>315</v>
       </c>
-      <c r="L154" s="11" t="s">
+      <c r="L154" s="12" t="s">
         <v>316</v>
       </c>
     </row>
@@ -9346,7 +9355,7 @@
       <c r="D155" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="E155" s="17" t="s">
+      <c r="E155" s="18" t="s">
         <v>318</v>
       </c>
       <c r="J155" s="10" t="s">
@@ -9358,535 +9367,535 @@
       <c r="L155" s="10" t="s">
         <v>321</v>
       </c>
-      <c r="M155" s="18"/>
-    </row>
-    <row r="156" s="10" customFormat="1" spans="1:13">
-      <c r="A156" s="10">
+      <c r="M155" s="19"/>
+    </row>
+    <row r="156" s="11" customFormat="1" spans="1:13">
+      <c r="A156" s="11">
         <v>3</v>
       </c>
-      <c r="B156" s="10" t="s">
+      <c r="B156" s="11" t="s">
         <v>313</v>
       </c>
-      <c r="C156" s="10" t="s">
+      <c r="C156" s="11" t="s">
         <v>322</v>
       </c>
-      <c r="D156" s="10" t="s">
+      <c r="D156" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="E156" s="17" t="s">
+      <c r="E156" s="20" t="s">
         <v>323</v>
       </c>
-      <c r="J156" s="10" t="s">
+      <c r="J156" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="K156" s="10" t="s">
+      <c r="K156" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="L156" s="10" t="s">
+      <c r="L156" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="M156" s="18"/>
+      <c r="M156" s="21"/>
     </row>
     <row r="157" spans="1:13">
-      <c r="A157" s="11">
+      <c r="A157" s="12">
         <v>4</v>
       </c>
-      <c r="B157" s="11" t="s">
+      <c r="B157" s="12" t="s">
         <v>313</v>
       </c>
-      <c r="C157" s="11" t="s">
+      <c r="C157" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="D157" s="11" t="s">
+      <c r="D157" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="E157" s="15" t="s">
+      <c r="E157" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="J157" s="11" t="s">
+      <c r="J157" s="12" t="s">
         <v>159</v>
       </c>
-      <c r="K157" s="11" t="s">
+      <c r="K157" s="12" t="s">
         <v>160</v>
       </c>
-      <c r="L157" s="15" t="s">
+      <c r="L157" s="16" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="158" spans="1:13">
-      <c r="A158" s="11">
+      <c r="A158" s="12">
         <v>5</v>
       </c>
-      <c r="B158" s="11" t="s">
+      <c r="B158" s="12" t="s">
         <v>313</v>
       </c>
-      <c r="C158" s="11" t="s">
+      <c r="C158" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="D158" s="11" t="s">
+      <c r="D158" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="E158" s="15" t="s">
+      <c r="E158" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="J158" s="11" t="s">
+      <c r="J158" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="K158" s="11" t="s">
+      <c r="K158" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="L158" s="15" t="s">
+      <c r="L158" s="16" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="159" spans="1:13">
-      <c r="A159" s="11">
+      <c r="A159" s="12">
         <v>6</v>
       </c>
-      <c r="B159" s="11" t="s">
+      <c r="B159" s="12" t="s">
         <v>313</v>
       </c>
-      <c r="C159" s="11" t="s">
+      <c r="C159" s="12" t="s">
         <v>324</v>
       </c>
-      <c r="D159" s="11" t="s">
+      <c r="D159" s="12" t="s">
         <v>325</v>
       </c>
-      <c r="E159" s="15" t="s">
+      <c r="E159" s="16" t="s">
         <v>326</v>
       </c>
-      <c r="J159" s="11" t="s">
+      <c r="J159" s="12" t="s">
         <v>220</v>
       </c>
-      <c r="K159" s="11" t="s">
+      <c r="K159" s="12" t="s">
         <v>221</v>
       </c>
-      <c r="L159" s="11" t="s">
+      <c r="L159" s="12" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="160" spans="1:13">
-      <c r="A160" s="11">
+      <c r="A160" s="12">
         <v>7</v>
       </c>
-      <c r="B160" s="11" t="s">
+      <c r="B160" s="12" t="s">
         <v>313</v>
       </c>
-      <c r="D160" s="11" t="s">
+      <c r="D160" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="E160" s="16">
+      <c r="E160" s="17">
         <v>10</v>
       </c>
-      <c r="J160" s="11" t="s">
+      <c r="J160" s="12" t="s">
         <v>204</v>
       </c>
-      <c r="K160" s="11" t="s">
+      <c r="K160" s="12" t="s">
         <v>223</v>
       </c>
-      <c r="L160" s="11" t="s">
+      <c r="L160" s="12" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="161" spans="1:13">
-      <c r="A161" s="11">
+      <c r="A161" s="12">
         <v>8</v>
       </c>
-      <c r="B161" s="11" t="s">
+      <c r="B161" s="12" t="s">
         <v>313</v>
       </c>
-      <c r="E161" s="13"/>
-      <c r="J161" s="11" t="s">
+      <c r="E161" s="14"/>
+      <c r="J161" s="12" t="s">
         <v>209</v>
       </c>
-      <c r="K161" s="11" t="s">
+      <c r="K161" s="12" t="s">
         <v>226</v>
       </c>
-      <c r="L161" s="11" t="s">
+      <c r="L161" s="12" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="162" spans="1:13">
-      <c r="A162" s="11">
+      <c r="A162" s="12">
         <v>1</v>
       </c>
-      <c r="B162" s="11" t="s">
+      <c r="B162" s="12" t="s">
         <v>327</v>
       </c>
-      <c r="D162" s="11" t="s">
+      <c r="D162" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="E162" s="15" t="s">
+      <c r="E162" s="16" t="s">
         <v>295</v>
       </c>
-      <c r="F162" s="11" t="s">
+      <c r="F162" s="12" t="s">
         <v>253</v>
       </c>
-      <c r="G162" s="11">
+      <c r="G162" s="12">
         <v>72</v>
       </c>
-      <c r="H162" s="11">
+      <c r="H162" s="12">
         <v>3</v>
       </c>
-      <c r="I162" s="11">
+      <c r="I162" s="12">
         <v>250</v>
       </c>
-      <c r="J162" s="11" t="s">
+      <c r="J162" s="12" t="s">
         <v>328</v>
       </c>
-      <c r="K162" s="11" t="s">
+      <c r="K162" s="12" t="s">
         <v>329</v>
       </c>
-      <c r="L162" s="11" t="s">
+      <c r="L162" s="12" t="s">
         <v>330</v>
       </c>
     </row>
     <row r="163" spans="1:13">
-      <c r="A163" s="11">
+      <c r="A163" s="12">
         <v>2</v>
       </c>
-      <c r="B163" s="11" t="s">
+      <c r="B163" s="12" t="s">
         <v>327</v>
       </c>
-      <c r="C163" s="11" t="s">
+      <c r="C163" s="12" t="s">
         <v>331</v>
       </c>
-      <c r="D163" s="11" t="s">
+      <c r="D163" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="E163" s="16">
+      <c r="E163" s="17">
         <v>100</v>
       </c>
-      <c r="J163" s="11" t="s">
+      <c r="J163" s="12" t="s">
         <v>332</v>
       </c>
-      <c r="K163" s="11" t="s">
+      <c r="K163" s="12" t="s">
         <v>333</v>
       </c>
-      <c r="L163" s="11" t="s">
+      <c r="L163" s="12" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="164" spans="1:13">
-      <c r="A164" s="11">
+      <c r="A164" s="12">
         <v>3</v>
       </c>
-      <c r="B164" s="11" t="s">
+      <c r="B164" s="12" t="s">
         <v>327</v>
       </c>
-      <c r="C164" s="11" t="s">
+      <c r="C164" s="12" t="s">
         <v>259</v>
       </c>
-      <c r="D164" s="11" t="s">
+      <c r="D164" s="12" t="s">
         <v>260</v>
       </c>
-      <c r="E164" s="15" t="s">
+      <c r="E164" s="16" t="s">
         <v>261</v>
       </c>
-      <c r="J164" s="11" t="s">
+      <c r="J164" s="12" t="s">
         <v>335</v>
       </c>
-      <c r="K164" s="11" t="s">
+      <c r="K164" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="L164" s="11" t="s">
+      <c r="L164" s="12" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="165" spans="1:13">
-      <c r="A165" s="11">
+      <c r="A165" s="12">
         <v>4</v>
       </c>
-      <c r="B165" s="11" t="s">
+      <c r="B165" s="12" t="s">
         <v>327</v>
       </c>
-      <c r="C165" s="11" t="s">
+      <c r="C165" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="D165" s="11" t="s">
+      <c r="D165" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="E165" s="15" t="s">
+      <c r="E165" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="J165" s="11" t="s">
+      <c r="J165" s="12" t="s">
         <v>336</v>
       </c>
-      <c r="K165" s="11" t="s">
+      <c r="K165" s="12" t="s">
         <v>337</v>
       </c>
-      <c r="L165" s="15" t="s">
+      <c r="L165" s="16" t="s">
         <v>338</v>
       </c>
     </row>
     <row r="166" spans="1:13">
-      <c r="A166" s="11">
+      <c r="A166" s="12">
         <v>5</v>
       </c>
-      <c r="B166" s="11" t="s">
+      <c r="B166" s="12" t="s">
         <v>327</v>
       </c>
-      <c r="C166" s="11" t="s">
+      <c r="C166" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="D166" s="11" t="s">
+      <c r="D166" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="E166" s="15" t="s">
+      <c r="E166" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="J166" s="11" t="s">
+      <c r="J166" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="K166" s="11" t="s">
+      <c r="K166" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="L166" s="15" t="s">
+      <c r="L166" s="16" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="167" spans="1:13">
-      <c r="A167" s="11">
+      <c r="A167" s="12">
         <v>6</v>
       </c>
-      <c r="B167" s="11" t="s">
+      <c r="B167" s="12" t="s">
         <v>327</v>
       </c>
-      <c r="E167" s="13"/>
-      <c r="J167" s="11" t="s">
+      <c r="E167" s="14"/>
+      <c r="J167" s="12" t="s">
         <v>220</v>
       </c>
-      <c r="K167" s="11" t="s">
+      <c r="K167" s="12" t="s">
         <v>221</v>
       </c>
-      <c r="L167" s="11" t="s">
+      <c r="L167" s="12" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="168" spans="1:13">
-      <c r="A168" s="11">
+      <c r="A168" s="12">
         <v>7</v>
       </c>
-      <c r="B168" s="11" t="s">
+      <c r="B168" s="12" t="s">
         <v>327</v>
       </c>
-      <c r="E168" s="13"/>
-      <c r="J168" s="11" t="s">
+      <c r="E168" s="14"/>
+      <c r="J168" s="12" t="s">
         <v>339</v>
       </c>
-      <c r="K168" s="11" t="s">
+      <c r="K168" s="12" t="s">
         <v>223</v>
       </c>
-      <c r="L168" s="11" t="s">
+      <c r="L168" s="12" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="169" spans="1:13">
-      <c r="A169" s="11">
+      <c r="A169" s="12">
         <v>8</v>
       </c>
-      <c r="B169" s="11" t="s">
+      <c r="B169" s="12" t="s">
         <v>327</v>
       </c>
-      <c r="E169" s="13"/>
-      <c r="J169" s="11" t="s">
+      <c r="E169" s="14"/>
+      <c r="J169" s="12" t="s">
         <v>340</v>
       </c>
-      <c r="K169" s="11" t="s">
+      <c r="K169" s="12" t="s">
         <v>226</v>
       </c>
-      <c r="L169" s="11" t="s">
+      <c r="L169" s="12" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="170" spans="1:13">
-      <c r="A170" s="11">
+      <c r="A170" s="12">
         <v>1</v>
       </c>
-      <c r="B170" s="11" t="s">
+      <c r="B170" s="12" t="s">
         <v>341</v>
       </c>
-      <c r="D170" s="11" t="s">
+      <c r="D170" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="E170" s="15" t="s">
+      <c r="E170" s="16" t="s">
         <v>295</v>
       </c>
-      <c r="F170" s="11" t="s">
+      <c r="F170" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="G170" s="11">
+      <c r="G170" s="12">
         <v>71</v>
       </c>
-      <c r="H170" s="11">
+      <c r="H170" s="12">
         <v>3</v>
       </c>
-      <c r="I170" s="11">
+      <c r="I170" s="12">
         <v>350</v>
       </c>
-      <c r="J170" s="11" t="s">
+      <c r="J170" s="12" t="s">
         <v>342</v>
       </c>
-      <c r="K170" s="11" t="s">
+      <c r="K170" s="12" t="s">
         <v>343</v>
       </c>
-      <c r="L170" s="11" t="s">
+      <c r="L170" s="12" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="171" s="10" customFormat="1" spans="1:13">
-      <c r="A171" s="10">
+    <row r="171" s="11" customFormat="1" spans="1:13">
+      <c r="A171" s="11">
         <v>2</v>
       </c>
-      <c r="B171" s="10" t="s">
+      <c r="B171" s="11" t="s">
         <v>341</v>
       </c>
-      <c r="C171" s="10" t="s">
+      <c r="C171" s="11" t="s">
         <v>345</v>
       </c>
-      <c r="D171" s="10" t="s">
+      <c r="D171" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="E171" s="17" t="s">
+      <c r="E171" s="20" t="s">
         <v>346</v>
       </c>
-      <c r="J171" s="10" t="s">
+      <c r="J171" s="11" t="s">
         <v>347</v>
       </c>
-      <c r="K171" s="10" t="s">
+      <c r="K171" s="11" t="s">
         <v>348</v>
       </c>
-      <c r="L171" s="10" t="s">
+      <c r="L171" s="11" t="s">
         <v>349</v>
       </c>
-      <c r="M171" s="18"/>
+      <c r="M171" s="21"/>
     </row>
     <row r="172" spans="1:13">
-      <c r="A172" s="11">
+      <c r="A172" s="12">
         <v>3</v>
       </c>
-      <c r="B172" s="11" t="s">
+      <c r="B172" s="12" t="s">
         <v>341</v>
       </c>
-      <c r="C172" s="11" t="s">
+      <c r="C172" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="D172" s="11" t="s">
+      <c r="D172" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="E172" s="15" t="s">
+      <c r="E172" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="J172" s="11" t="s">
+      <c r="J172" s="12" t="s">
         <v>350</v>
       </c>
-      <c r="K172" s="11" t="s">
+      <c r="K172" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="L172" s="11" t="s">
+      <c r="L172" s="12" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="173" spans="1:13">
-      <c r="A173" s="11">
+      <c r="A173" s="12">
         <v>4</v>
       </c>
-      <c r="B173" s="11" t="s">
+      <c r="B173" s="12" t="s">
         <v>341</v>
       </c>
-      <c r="C173" s="11" t="s">
+      <c r="C173" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="D173" s="11" t="s">
+      <c r="D173" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="E173" s="15" t="s">
+      <c r="E173" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="J173" s="11" t="s">
+      <c r="J173" s="12" t="s">
         <v>336</v>
       </c>
-      <c r="K173" s="11" t="s">
+      <c r="K173" s="12" t="s">
         <v>351</v>
       </c>
-      <c r="L173" s="15" t="s">
+      <c r="L173" s="16" t="s">
         <v>352</v>
       </c>
     </row>
     <row r="174" spans="1:13">
-      <c r="A174" s="11">
+      <c r="A174" s="12">
         <v>5</v>
       </c>
-      <c r="B174" s="11" t="s">
+      <c r="B174" s="12" t="s">
         <v>341</v>
       </c>
-      <c r="D174" s="11" t="s">
+      <c r="D174" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="E174" s="16">
+      <c r="E174" s="17">
         <v>10</v>
       </c>
-      <c r="J174" s="11" t="s">
+      <c r="J174" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="K174" s="11" t="s">
+      <c r="K174" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="L174" s="15" t="s">
+      <c r="L174" s="16" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="175" spans="1:13">
-      <c r="A175" s="11">
+      <c r="A175" s="12">
         <v>6</v>
       </c>
-      <c r="B175" s="11" t="s">
+      <c r="B175" s="12" t="s">
         <v>341</v>
       </c>
-      <c r="E175" s="11"/>
-      <c r="J175" s="11" t="s">
+      <c r="E175" s="12"/>
+      <c r="J175" s="12" t="s">
         <v>220</v>
       </c>
-      <c r="K175" s="11" t="s">
+      <c r="K175" s="12" t="s">
         <v>221</v>
       </c>
-      <c r="L175" s="11" t="s">
+      <c r="L175" s="12" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="176" spans="1:13">
-      <c r="A176" s="11">
+      <c r="A176" s="12">
         <v>7</v>
       </c>
-      <c r="B176" s="11" t="s">
+      <c r="B176" s="12" t="s">
         <v>341</v>
       </c>
-      <c r="E176" s="11"/>
-      <c r="J176" s="11" t="s">
+      <c r="E176" s="12"/>
+      <c r="J176" s="12" t="s">
         <v>353</v>
       </c>
-      <c r="K176" s="11" t="s">
+      <c r="K176" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="L176" s="11" t="s">
+      <c r="L176" s="12" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="177" spans="1:12">
-      <c r="A177" s="11">
+      <c r="A177" s="12">
         <v>8</v>
       </c>
-      <c r="B177" s="11" t="s">
+      <c r="B177" s="12" t="s">
         <v>341</v>
       </c>
-      <c r="E177" s="11"/>
-      <c r="J177" s="11" t="s">
+      <c r="E177" s="12"/>
+      <c r="J177" s="12" t="s">
         <v>354</v>
       </c>
-      <c r="K177" s="11" t="s">
+      <c r="K177" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="L177" s="11" t="s">
+      <c r="L177" s="12" t="s">
         <v>74</v>
       </c>
     </row>
@@ -10033,7 +10042,7 @@
       <c r="C8" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="D8" s="19" t="s">
+      <c r="D8" s="22" t="s">
         <v>363</v>
       </c>
     </row>
@@ -10047,7 +10056,7 @@
       <c r="C9" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D9" s="19" t="s">
+      <c r="D9" s="22" t="s">
         <v>35</v>
       </c>
     </row>
@@ -10509,7 +10518,7 @@
       <c r="C42" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="D42" s="19" t="s">
+      <c r="D42" s="22" t="s">
         <v>433</v>
       </c>
     </row>
@@ -10957,7 +10966,7 @@
       <c r="C74" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D74" s="19" t="s">
+      <c r="D74" s="22" t="s">
         <v>360</v>
       </c>
     </row>
@@ -11475,7 +11484,7 @@
       <c r="C111" s="7" t="s">
         <v>438</v>
       </c>
-      <c r="D111" s="19" t="s">
+      <c r="D111" s="22" t="s">
         <v>531</v>
       </c>
     </row>
@@ -11937,7 +11946,7 @@
       <c r="C144" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D144" s="19" t="s">
+      <c r="D144" s="22" t="s">
         <v>360</v>
       </c>
     </row>
@@ -11993,7 +12002,7 @@
       <c r="C148" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D148" s="19" t="s">
+      <c r="D148" s="22" t="s">
         <v>360</v>
       </c>
     </row>
@@ -12007,7 +12016,7 @@
       <c r="C149" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D149" s="19" t="s">
+      <c r="D149" s="22" t="s">
         <v>360</v>
       </c>
     </row>
@@ -12147,7 +12156,7 @@
       <c r="C159" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="D159" s="19" t="s">
+      <c r="D159" s="22" t="s">
         <v>433</v>
       </c>
     </row>
@@ -12231,7 +12240,7 @@
       <c r="C165" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D165" s="19" t="s">
+      <c r="D165" s="22" t="s">
         <v>360</v>
       </c>
     </row>
@@ -12525,7 +12534,7 @@
       <c r="C186" s="2" t="s">
         <v>614</v>
       </c>
-      <c r="D186" s="19" t="s">
+      <c r="D186" s="22" t="s">
         <v>615</v>
       </c>
     </row>
@@ -12721,7 +12730,7 @@
       <c r="C200" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D200" s="19" t="s">
+      <c r="D200" s="22" t="s">
         <v>629</v>
       </c>
     </row>
@@ -12749,7 +12758,7 @@
       <c r="C202" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D202" s="19" t="s">
+      <c r="D202" s="22" t="s">
         <v>635</v>
       </c>
     </row>
@@ -12833,7 +12842,7 @@
       <c r="C208" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D208" s="19" t="s">
+      <c r="D208" s="22" t="s">
         <v>35</v>
       </c>
     </row>
@@ -12847,7 +12856,7 @@
       <c r="C209" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D209" s="19" t="s">
+      <c r="D209" s="22" t="s">
         <v>635</v>
       </c>
     </row>
@@ -12889,7 +12898,7 @@
       <c r="C212" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D212" s="19" t="s">
+      <c r="D212" s="22" t="s">
         <v>635</v>
       </c>
     </row>
@@ -13127,7 +13136,7 @@
       <c r="C229" s="2" t="s">
         <v>374</v>
       </c>
-      <c r="D229" s="19" t="s">
+      <c r="D229" s="22" t="s">
         <v>375</v>
       </c>
     </row>
@@ -13169,7 +13178,7 @@
       <c r="C232" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="D232" s="19" t="s">
+      <c r="D232" s="22" t="s">
         <v>433</v>
       </c>
     </row>
@@ -13211,7 +13220,7 @@
       <c r="C235" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D235" s="19" t="s">
+      <c r="D235" s="22" t="s">
         <v>360</v>
       </c>
     </row>
@@ -14051,7 +14060,7 @@
       <c r="C295" s="7" t="s">
         <v>438</v>
       </c>
-      <c r="D295" s="19" t="s">
+      <c r="D295" s="22" t="s">
         <v>531</v>
       </c>
     </row>
@@ -14135,7 +14144,7 @@
       <c r="C301" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="D301" s="19" t="s">
+      <c r="D301" s="22" t="s">
         <v>433</v>
       </c>
     </row>
@@ -14177,7 +14186,7 @@
       <c r="C304" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D304" s="19" t="s">
+      <c r="D304" s="22" t="s">
         <v>360</v>
       </c>
     </row>
